--- a/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ene" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="41">
   <si>
     <t>GP</t>
   </si>
@@ -432,6 +432,18 @@
   </si>
   <si>
     <t>Desarrollo pantalla Buscador</t>
+  </si>
+  <si>
+    <t>Estándares</t>
+  </si>
+  <si>
+    <t>Revisión Estándares</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Revisión y edición del Buscador</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1807,6 +1819,7 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2339,10 +2352,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2442,11 +2455,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="237581032"/>
-        <c:axId val="238242904"/>
+        <c:axId val="219807424"/>
+        <c:axId val="132511984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="237581032"/>
+        <c:axId val="219807424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,7 +2500,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238242904"/>
+        <c:crossAx val="132511984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2495,7 +2508,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238242904"/>
+        <c:axId val="132511984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2551,7 +2564,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237581032"/>
+        <c:crossAx val="219807424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2787,6 +2800,150 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10610850" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10610850" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10610850" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3059,6 +3216,150 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3299,6 +3600,150 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3507,6 +3952,150 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3804,6 +4393,150 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4012,6 +4745,150 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4284,6 +5161,150 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4492,6 +5513,150 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4764,6 +5929,150 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4972,6 +6281,150 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5244,6 +6697,150 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5452,6 +7049,150 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5813,8 +7554,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="153"/>
-      <c r="AS1" s="154"/>
+      <c r="AR1" s="154"/>
+      <c r="AS1" s="155"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -8497,8 +10238,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="153"/>
-      <c r="AS1" s="154"/>
+      <c r="AR1" s="154"/>
+      <c r="AS1" s="155"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -11330,8 +13071,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="153"/>
-      <c r="AR1" s="154"/>
+      <c r="AQ1" s="154"/>
+      <c r="AR1" s="155"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -14116,8 +15857,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="153"/>
-      <c r="AS1" s="154"/>
+      <c r="AR1" s="154"/>
+      <c r="AS1" s="155"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -17101,7 +18842,7 @@
       </c>
       <c r="G6" s="82">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="H6" s="84">
         <f>Ene!G36</f>
@@ -17113,11 +18854,11 @@
       </c>
       <c r="J6" s="84">
         <f>Mar!G36</f>
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="K6" s="84">
         <f>Abr!G36</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L6" s="84">
         <f>May!G36</f>
@@ -17677,7 +19418,7 @@
   <dimension ref="A1:AZ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17733,8 +19474,8 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
-      <c r="AO1" s="153"/>
-      <c r="AP1" s="154"/>
+      <c r="AO1" s="154"/>
+      <c r="AP1" s="155"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
@@ -20353,8 +22094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20413,8 +22154,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="153"/>
-      <c r="AS1" s="154"/>
+      <c r="AR1" s="154"/>
+      <c r="AS1" s="155"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -20724,7 +22465,7 @@
       </c>
       <c r="G5" s="152">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H5" s="102"/>
       <c r="I5" s="118"/>
@@ -20738,7 +22479,7 @@
       <c r="Q5" s="118"/>
       <c r="R5" s="118"/>
       <c r="S5" s="118">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="T5" s="20"/>
       <c r="U5" s="16"/>
@@ -20935,7 +22676,9 @@
       <c r="E8" s="119">
         <v>0</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="G8" s="11">
         <f t="shared" si="1"/>
         <v>1.5</v>
@@ -20993,14 +22736,24 @@
     </row>
     <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
+      <c r="B9" s="117">
+        <v>85</v>
+      </c>
+      <c r="C9" s="118">
+        <v>2</v>
+      </c>
+      <c r="D9" s="20">
+        <v>45</v>
+      </c>
+      <c r="E9" s="119">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="G9" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(H9:AL9)</f>
+        <v>1</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="20"/>
@@ -21013,7 +22766,9 @@
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
       <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
+      <c r="S9" s="20">
+        <v>1</v>
+      </c>
       <c r="T9" s="20"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
@@ -21188,7 +22943,7 @@
       <c r="K12" s="20"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="N12" s="153"/>
       <c r="O12" s="16"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
@@ -22622,7 +24377,7 @@
       </c>
       <c r="G36" s="33">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="H36" s="34">
         <f t="shared" ref="H36:AL36" si="2">SUM(H3:H35)</f>
@@ -22670,7 +24425,7 @@
       </c>
       <c r="S36" s="51">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T36" s="51">
         <f t="shared" si="2"/>
@@ -23182,22 +24937,22 @@
   <mergeCells count="1">
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6:G35">
+  <conditionalFormatting sqref="G6:G8 G10:G35">
     <cfRule type="cellIs" dxfId="25" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G35">
+  <conditionalFormatting sqref="G6:G8 G10:G35">
     <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="G3 G9">
     <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="G3 G9">
     <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -23211,8 +24966,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -23220,7 +24976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -23277,8 +25035,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="153"/>
-      <c r="AR1" s="154"/>
+      <c r="AQ1" s="154"/>
+      <c r="AR1" s="155"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -23424,14 +25182,24 @@
     </row>
     <row r="3" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="117">
+        <v>85</v>
+      </c>
+      <c r="C3" s="118">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20">
+        <v>57</v>
+      </c>
+      <c r="E3" s="119">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G36" si="0">SUM(H3:AK3)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -23440,7 +25208,9 @@
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="O3" s="39">
+        <v>0.5</v>
+      </c>
       <c r="P3" s="39"/>
       <c r="Q3" s="39"/>
       <c r="R3" s="12"/>
@@ -23483,14 +25253,24 @@
     </row>
     <row r="4" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="B4" s="117">
+        <v>85</v>
+      </c>
+      <c r="C4" s="118">
+        <v>2</v>
+      </c>
+      <c r="D4" s="20">
+        <v>45</v>
+      </c>
+      <c r="E4" s="119">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="G4" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -23499,7 +25279,9 @@
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="O4" s="20">
+        <v>0.5</v>
+      </c>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="16"/>
@@ -23542,14 +25324,24 @@
     </row>
     <row r="5" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
+      <c r="B5" s="117">
+        <v>85</v>
+      </c>
+      <c r="C5" s="118">
+        <v>2</v>
+      </c>
+      <c r="D5" s="20">
+        <v>54</v>
+      </c>
+      <c r="E5" s="119">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="G5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
@@ -23562,7 +25354,9 @@
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
+      <c r="S5" s="16">
+        <v>0.5</v>
+      </c>
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
       <c r="V5" s="20"/>
@@ -25380,7 +27174,7 @@
       </c>
       <c r="G36" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H36" s="34">
         <f t="shared" ref="H36:AK36" si="1">SUM(H3:H35)</f>
@@ -25412,7 +27206,7 @@
       </c>
       <c r="O36" s="51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="51">
         <f t="shared" si="1"/>
@@ -25428,7 +27222,7 @@
       </c>
       <c r="S36" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T36" s="51">
         <f t="shared" si="1"/>
@@ -26007,8 +27801,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="153"/>
-      <c r="AS1" s="154"/>
+      <c r="AR1" s="154"/>
+      <c r="AS1" s="155"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -28783,8 +30577,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="153"/>
-      <c r="AR1" s="154"/>
+      <c r="AQ1" s="154"/>
+      <c r="AR1" s="155"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -31514,8 +33308,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="153"/>
-      <c r="AS1" s="154"/>
+      <c r="AR1" s="154"/>
+      <c r="AS1" s="155"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -34291,8 +36085,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="153"/>
-      <c r="AS1" s="154"/>
+      <c r="AR1" s="154"/>
+      <c r="AS1" s="155"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -37067,8 +38861,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="153"/>
-      <c r="AR1" s="154"/>
+      <c r="AQ1" s="154"/>
+      <c r="AR1" s="155"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>

--- a/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="43">
   <si>
     <t>GP</t>
   </si>
@@ -447,6 +447,9 @@
   </si>
   <si>
     <t>Inserciones BD</t>
+  </si>
+  <si>
+    <t>Planificación auditoría</t>
   </si>
 </sst>
 </file>
@@ -2358,7 +2361,7 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2458,11 +2461,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="227120000"/>
-        <c:axId val="304470288"/>
+        <c:axId val="294918568"/>
+        <c:axId val="294918960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="227120000"/>
+        <c:axId val="294918568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2503,7 +2506,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304470288"/>
+        <c:crossAx val="294918960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2511,7 +2514,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="304470288"/>
+        <c:axId val="294918960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2567,7 +2570,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227120000"/>
+        <c:crossAx val="294918568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2995,6 +2998,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10610850" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3459,6 +3510,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3891,6 +3990,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4291,6 +4438,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4780,6 +4975,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5180,6 +5423,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5644,6 +5935,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6044,6 +6383,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6508,6 +6895,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6908,6 +7343,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7372,6 +7855,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7804,6 +8335,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19421,7 +20000,7 @@
       </c>
       <c r="G6" s="82">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="H6" s="84">
         <f>Ene!G36</f>
@@ -19437,7 +20016,7 @@
       </c>
       <c r="K6" s="84">
         <f>Abr!G36</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L6" s="84">
         <f>May!G36</f>
@@ -22674,7 +23253,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F10" sqref="B10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23322,7 +23901,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="20">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="119">
         <v>0</v>
@@ -23387,11 +23966,6 @@
     </row>
     <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
       <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25555,8 +26129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25839,7 +26413,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="20">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="119">
         <v>0</v>
@@ -26045,14 +26619,24 @@
     </row>
     <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="117">
+        <v>85</v>
+      </c>
+      <c r="C7" s="118">
+        <v>2</v>
+      </c>
+      <c r="D7" s="20">
+        <v>57</v>
+      </c>
+      <c r="E7" s="119">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="G7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
@@ -26072,7 +26656,9 @@
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
+      <c r="Z7" s="16">
+        <v>0.5</v>
+      </c>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
       <c r="AC7" s="20"/>
@@ -26104,14 +26690,24 @@
     </row>
     <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
+      <c r="B8" s="117">
+        <v>85</v>
+      </c>
+      <c r="C8" s="118">
+        <v>2</v>
+      </c>
+      <c r="D8" s="20">
+        <v>44</v>
+      </c>
+      <c r="E8" s="119">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -26131,7 +26727,9 @@
       <c r="W8" s="20"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
+      <c r="Z8" s="16">
+        <v>1</v>
+      </c>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
       <c r="AC8" s="20"/>
@@ -27765,7 +28363,7 @@
       </c>
       <c r="G36" s="33">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H36" s="34">
         <f t="shared" ref="H36:AK36" si="1">SUM(H3:H35)</f>
@@ -27841,7 +28439,7 @@
       </c>
       <c r="Z36" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AA36" s="51">
         <f t="shared" si="1"/>

--- a/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="44">
   <si>
     <t>GP</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>Planificación auditoría</t>
+  </si>
+  <si>
+    <t>Pruebas</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +2364,7 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2461,11 +2464,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="294918568"/>
-        <c:axId val="294918960"/>
+        <c:axId val="300113752"/>
+        <c:axId val="300114144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="294918568"/>
+        <c:axId val="300113752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2506,7 +2509,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294918960"/>
+        <c:crossAx val="300114144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2514,7 +2517,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="294918960"/>
+        <c:axId val="300114144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2570,7 +2573,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294918568"/>
+        <c:crossAx val="300113752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3046,6 +3049,102 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10610850" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10610850" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3558,6 +3657,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4038,6 +4233,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4486,6 +4777,102 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5023,6 +5410,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5471,6 +5954,102 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5983,6 +6562,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6431,6 +7106,102 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6943,6 +7714,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7391,6 +8258,102 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7903,6 +8866,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8383,6 +9442,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8651,7 +9806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -20000,7 +21155,7 @@
       </c>
       <c r="G6" s="82">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="H6" s="84">
         <f>Ene!G36</f>
@@ -20016,7 +21171,7 @@
       </c>
       <c r="K6" s="84">
         <f>Abr!G36</f>
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L6" s="84">
         <f>May!G36</f>
@@ -23253,7 +24408,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="B10:F10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23760,7 +24915,7 @@
         <v>54</v>
       </c>
       <c r="E7" s="119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>36</v>
@@ -26129,8 +27284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22:T22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26487,7 +27642,7 @@
         <v>54</v>
       </c>
       <c r="E5" s="119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>40</v>
@@ -26707,7 +27862,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -26728,7 +27883,7 @@
       <c r="X8" s="20"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
@@ -26761,14 +27916,24 @@
     </row>
     <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
+      <c r="B9" s="117">
+        <v>85</v>
+      </c>
+      <c r="C9" s="118">
+        <v>2</v>
+      </c>
+      <c r="D9" s="20">
+        <v>56</v>
+      </c>
+      <c r="E9" s="119">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -26788,7 +27953,9 @@
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
+      <c r="Z9" s="16">
+        <v>0.5</v>
+      </c>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
       <c r="AC9" s="20"/>
@@ -28363,7 +29530,7 @@
       </c>
       <c r="G36" s="33">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H36" s="34">
         <f t="shared" ref="H36:AK36" si="1">SUM(H3:H35)</f>
@@ -28439,7 +29606,7 @@
       </c>
       <c r="Z36" s="34">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AA36" s="51">
         <f t="shared" si="1"/>
@@ -28923,8 +30090,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="44">
   <si>
     <t>GP</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>Planificación auditoría</t>
+  </si>
+  <si>
+    <t>Pruebas</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +2364,7 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2461,11 +2464,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="294918568"/>
-        <c:axId val="294918960"/>
+        <c:axId val="295659808"/>
+        <c:axId val="294549672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="294918568"/>
+        <c:axId val="295659808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2506,7 +2509,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294918960"/>
+        <c:crossAx val="294549672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2514,7 +2517,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="294918960"/>
+        <c:axId val="294549672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2570,7 +2573,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294918568"/>
+        <c:crossAx val="295659808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3046,6 +3049,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10610850" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3558,6 +3609,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4038,6 +4137,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4486,6 +4633,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5023,6 +5218,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5471,6 +5714,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5983,6 +6274,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6431,6 +6770,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6943,6 +7330,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7391,6 +7826,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7903,6 +8386,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8383,6 +8914,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20000,7 +20579,7 @@
       </c>
       <c r="G6" s="82">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="H6" s="84">
         <f>Ene!G36</f>
@@ -20016,7 +20595,7 @@
       </c>
       <c r="K6" s="84">
         <f>Abr!G36</f>
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L6" s="84">
         <f>May!G36</f>
@@ -23253,7 +23832,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="B10:F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26129,8 +26708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22:T22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26487,7 +27066,7 @@
         <v>54</v>
       </c>
       <c r="E5" s="119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>40</v>
@@ -26707,7 +27286,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -26728,7 +27307,7 @@
       <c r="X8" s="20"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
@@ -26761,14 +27340,24 @@
     </row>
     <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
+      <c r="B9" s="117">
+        <v>85</v>
+      </c>
+      <c r="C9" s="118">
+        <v>2</v>
+      </c>
+      <c r="D9" s="20">
+        <v>54</v>
+      </c>
+      <c r="E9" s="119">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -26788,7 +27377,9 @@
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
+      <c r="Z9" s="16">
+        <v>0.5</v>
+      </c>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
       <c r="AC9" s="20"/>
@@ -28363,7 +28954,7 @@
       </c>
       <c r="G36" s="33">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H36" s="34">
         <f t="shared" ref="H36:AK36" si="1">SUM(H3:H35)</f>
@@ -28439,7 +29030,7 @@
       </c>
       <c r="Z36" s="34">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AA36" s="51">
         <f t="shared" si="1"/>

--- a/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Ene" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="46">
   <si>
     <t>GP</t>
   </si>
@@ -453,6 +453,12 @@
   </si>
   <si>
     <t>Pruebas</t>
+  </si>
+  <si>
+    <t>Primera parte de la auditoría</t>
+  </si>
+  <si>
+    <t>Segunda iteración. Destacar modelo</t>
   </si>
 </sst>
 </file>
@@ -1618,7 +1624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1833,6 +1839,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -2327,6 +2334,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2364,7 +2372,7 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8</c:v>
+                  <c:v>5.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2464,11 +2472,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="295659808"/>
-        <c:axId val="294549672"/>
+        <c:axId val="131263888"/>
+        <c:axId val="130409736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="295659808"/>
+        <c:axId val="131263888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2494,6 +2502,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="cross"/>
@@ -2509,7 +2518,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294549672"/>
+        <c:crossAx val="130409736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2517,7 +2526,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="294549672"/>
+        <c:axId val="130409736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2552,6 +2561,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2573,7 +2583,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295659808"/>
+        <c:crossAx val="131263888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2585,6 +2595,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3097,6 +3108,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10610850" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3657,6 +3716,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4185,6 +4292,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4681,6 +4836,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5266,6 +5469,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5762,6 +6013,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6322,6 +6621,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6818,6 +7165,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7378,6 +7773,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7874,6 +8317,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8434,6 +8925,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8962,6 +9501,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20370,7 +20957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -20579,7 +21166,7 @@
       </c>
       <c r="G6" s="82">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>17.3</v>
+        <v>18.8</v>
       </c>
       <c r="H6" s="84">
         <f>Ene!G36</f>
@@ -20595,7 +21182,7 @@
       </c>
       <c r="K6" s="84">
         <f>Abr!G36</f>
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="L6" s="84">
         <f>May!G36</f>
@@ -26708,8 +27295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27411,14 +27998,24 @@
     </row>
     <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+      <c r="B10" s="117">
+        <v>85</v>
+      </c>
+      <c r="C10" s="118">
+        <v>2</v>
+      </c>
+      <c r="D10" s="20">
+        <v>44</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>44</v>
+      </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -27445,7 +28042,9 @@
       <c r="AD10" s="16"/>
       <c r="AE10" s="16"/>
       <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
+      <c r="AG10" s="16">
+        <v>0.25</v>
+      </c>
       <c r="AH10" s="20"/>
       <c r="AI10" s="20"/>
       <c r="AJ10" s="20"/>
@@ -27470,14 +28069,24 @@
     </row>
     <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="117">
+        <v>85</v>
+      </c>
+      <c r="C11" s="118">
+        <v>2</v>
+      </c>
+      <c r="D11" s="20">
+        <v>55</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -27506,7 +28115,9 @@
       <c r="AF11" s="16"/>
       <c r="AG11" s="16"/>
       <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
+      <c r="AI11" s="20">
+        <v>1.25</v>
+      </c>
       <c r="AJ11" s="20"/>
       <c r="AK11" s="20"/>
       <c r="AL11" s="1"/>
@@ -27768,7 +28379,7 @@
       <c r="B16" s="18"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="156"/>
       <c r="F16" s="22"/>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
@@ -28954,7 +29565,7 @@
       </c>
       <c r="G36" s="33">
         <f t="shared" si="0"/>
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="H36" s="34">
         <f t="shared" ref="H36:AK36" si="1">SUM(H3:H35)</f>
@@ -29058,7 +29669,7 @@
       </c>
       <c r="AG36" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AH36" s="51">
         <f t="shared" si="1"/>
@@ -29066,7 +29677,7 @@
       </c>
       <c r="AI36" s="51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AJ36" s="51">
         <f t="shared" si="1"/>
@@ -29514,8 +30125,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ene" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="52">
   <si>
     <t>GP</t>
   </si>
@@ -459,6 +459,24 @@
   </si>
   <si>
     <t>Segunda iteración. Destacar modelo</t>
+  </si>
+  <si>
+    <t>reunion</t>
+  </si>
+  <si>
+    <t>Edición de auditoría</t>
+  </si>
+  <si>
+    <t>Practica 3. Planificación de auditoria.</t>
+  </si>
+  <si>
+    <t>Reunión con el profesor. Planificación para el lanzamiento del proyecto.</t>
+  </si>
+  <si>
+    <t>Practica1. Seguimos con la planificación del proyecto. Planteamiento de requisitos, diseño, estructura, tecnología, riesgos. Reparto de tareas.</t>
+  </si>
+  <si>
+    <t>Gestión de proyecto</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1773,7 +1791,6 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1835,17 +1852,134 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2366,16 +2500,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3</c:v>
+                  <c:v>7.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2472,11 +2606,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="131263888"/>
-        <c:axId val="130409736"/>
+        <c:axId val="319189120"/>
+        <c:axId val="319189512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131263888"/>
+        <c:axId val="319189120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,7 +2652,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130409736"/>
+        <c:crossAx val="319189512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2526,7 +2660,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130409736"/>
+        <c:axId val="319189512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2583,7 +2717,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131263888"/>
+        <c:crossAx val="319189120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3156,6 +3290,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10610850" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3764,6 +3946,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4340,6 +4570,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4884,6 +5162,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5517,6 +5843,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6061,6 +6435,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6669,6 +7091,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7213,6 +7683,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7821,6 +8339,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8365,6 +8931,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8973,6 +9587,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9549,6 +10211,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9895,7 +10605,7 @@
     </row>
     <row r="2" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="106" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="98" t="s">
@@ -9904,13 +10614,13 @@
       <c r="D2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="G2" s="109" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="97">
@@ -10003,7 +10713,7 @@
       <c r="AK2" s="98">
         <v>30</v>
       </c>
-      <c r="AL2" s="111">
+      <c r="AL2" s="110">
         <v>31</v>
       </c>
       <c r="AM2" s="2"/>
@@ -10040,37 +10750,37 @@
       <c r="E3" s="91"/>
       <c r="F3" s="95"/>
       <c r="G3" s="96"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="113"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="113"/>
-      <c r="AG3" s="113"/>
-      <c r="AH3" s="115"/>
-      <c r="AI3" s="115"/>
-      <c r="AJ3" s="113"/>
-      <c r="AK3" s="115"/>
-      <c r="AL3" s="116"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="114"/>
+      <c r="X3" s="114"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="114"/>
+      <c r="AB3" s="114"/>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="114"/>
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="112"/>
+      <c r="AG3" s="112"/>
+      <c r="AH3" s="114"/>
+      <c r="AI3" s="114"/>
+      <c r="AJ3" s="112"/>
+      <c r="AK3" s="114"/>
+      <c r="AL3" s="115"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
@@ -10095,43 +10805,43 @@
     </row>
     <row r="4" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
       <c r="G4" s="96"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="124"/>
-      <c r="AC4" s="124"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="122"/>
-      <c r="AG4" s="122"/>
-      <c r="AH4" s="124"/>
-      <c r="AI4" s="124"/>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="124"/>
-      <c r="AL4" s="125"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="121"/>
+      <c r="Z4" s="121"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="123"/>
+      <c r="AE4" s="123"/>
+      <c r="AF4" s="121"/>
+      <c r="AG4" s="121"/>
+      <c r="AH4" s="123"/>
+      <c r="AI4" s="123"/>
+      <c r="AJ4" s="121"/>
+      <c r="AK4" s="123"/>
+      <c r="AL4" s="124"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
@@ -10156,43 +10866,43 @@
     </row>
     <row r="5" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="129"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="96"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="124"/>
-      <c r="V5" s="124"/>
-      <c r="W5" s="124"/>
-      <c r="X5" s="124"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="124"/>
-      <c r="AB5" s="124"/>
-      <c r="AC5" s="124"/>
-      <c r="AD5" s="124"/>
-      <c r="AE5" s="124"/>
-      <c r="AF5" s="122"/>
-      <c r="AG5" s="122"/>
-      <c r="AH5" s="124"/>
-      <c r="AI5" s="124"/>
-      <c r="AJ5" s="122"/>
-      <c r="AK5" s="124"/>
-      <c r="AL5" s="125"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
+      <c r="T5" s="123"/>
+      <c r="U5" s="123"/>
+      <c r="V5" s="123"/>
+      <c r="W5" s="123"/>
+      <c r="X5" s="123"/>
+      <c r="Y5" s="121"/>
+      <c r="Z5" s="121"/>
+      <c r="AA5" s="123"/>
+      <c r="AB5" s="123"/>
+      <c r="AC5" s="123"/>
+      <c r="AD5" s="123"/>
+      <c r="AE5" s="123"/>
+      <c r="AF5" s="121"/>
+      <c r="AG5" s="121"/>
+      <c r="AH5" s="123"/>
+      <c r="AI5" s="123"/>
+      <c r="AJ5" s="121"/>
+      <c r="AK5" s="123"/>
+      <c r="AL5" s="124"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
@@ -10217,43 +10927,43 @@
     </row>
     <row r="6" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="129"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="128"/>
       <c r="G6" s="96"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="122"/>
-      <c r="S6" s="122"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="124"/>
-      <c r="AB6" s="124"/>
-      <c r="AC6" s="124"/>
-      <c r="AD6" s="124"/>
-      <c r="AE6" s="124"/>
-      <c r="AF6" s="122"/>
-      <c r="AG6" s="122"/>
-      <c r="AH6" s="124"/>
-      <c r="AI6" s="124"/>
-      <c r="AJ6" s="122"/>
-      <c r="AK6" s="124"/>
-      <c r="AL6" s="125"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="123"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="123"/>
+      <c r="V6" s="123"/>
+      <c r="W6" s="123"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="121"/>
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="123"/>
+      <c r="AD6" s="123"/>
+      <c r="AE6" s="123"/>
+      <c r="AF6" s="121"/>
+      <c r="AG6" s="121"/>
+      <c r="AH6" s="123"/>
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="121"/>
+      <c r="AK6" s="123"/>
+      <c r="AL6" s="124"/>
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
@@ -10276,43 +10986,43 @@
     </row>
     <row r="7" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="129"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="96"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="124"/>
-      <c r="AF7" s="122"/>
-      <c r="AG7" s="122"/>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="124"/>
-      <c r="AJ7" s="122"/>
-      <c r="AK7" s="124"/>
-      <c r="AL7" s="125"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="123"/>
+      <c r="U7" s="123"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="121"/>
+      <c r="Z7" s="121"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="123"/>
+      <c r="AD7" s="123"/>
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="121"/>
+      <c r="AG7" s="121"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="123"/>
+      <c r="AJ7" s="121"/>
+      <c r="AK7" s="123"/>
+      <c r="AL7" s="124"/>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
@@ -10337,43 +11047,43 @@
     </row>
     <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="129"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="128"/>
       <c r="G8" s="96"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="122"/>
-      <c r="S8" s="122"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="124"/>
-      <c r="Y8" s="122"/>
-      <c r="Z8" s="122"/>
-      <c r="AA8" s="124"/>
-      <c r="AB8" s="124"/>
-      <c r="AC8" s="124"/>
-      <c r="AD8" s="124"/>
-      <c r="AE8" s="124"/>
-      <c r="AF8" s="122"/>
-      <c r="AG8" s="122"/>
-      <c r="AH8" s="124"/>
-      <c r="AI8" s="124"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="124"/>
-      <c r="AL8" s="125"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="123"/>
+      <c r="U8" s="123"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="121"/>
+      <c r="Z8" s="121"/>
+      <c r="AA8" s="123"/>
+      <c r="AB8" s="123"/>
+      <c r="AC8" s="123"/>
+      <c r="AD8" s="123"/>
+      <c r="AE8" s="123"/>
+      <c r="AF8" s="121"/>
+      <c r="AG8" s="121"/>
+      <c r="AH8" s="123"/>
+      <c r="AI8" s="123"/>
+      <c r="AJ8" s="121"/>
+      <c r="AK8" s="123"/>
+      <c r="AL8" s="124"/>
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
@@ -10398,43 +11108,43 @@
     </row>
     <row r="9" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="129"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="128"/>
       <c r="G9" s="96"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="124"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="124"/>
-      <c r="X9" s="124"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="124"/>
-      <c r="AB9" s="124"/>
-      <c r="AC9" s="124"/>
-      <c r="AD9" s="124"/>
-      <c r="AE9" s="124"/>
-      <c r="AF9" s="122"/>
-      <c r="AG9" s="122"/>
-      <c r="AH9" s="124"/>
-      <c r="AI9" s="124"/>
-      <c r="AJ9" s="122"/>
-      <c r="AK9" s="124"/>
-      <c r="AL9" s="125"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="123"/>
+      <c r="V9" s="123"/>
+      <c r="W9" s="123"/>
+      <c r="X9" s="123"/>
+      <c r="Y9" s="121"/>
+      <c r="Z9" s="121"/>
+      <c r="AA9" s="123"/>
+      <c r="AB9" s="123"/>
+      <c r="AC9" s="123"/>
+      <c r="AD9" s="123"/>
+      <c r="AE9" s="123"/>
+      <c r="AF9" s="121"/>
+      <c r="AG9" s="121"/>
+      <c r="AH9" s="123"/>
+      <c r="AI9" s="123"/>
+      <c r="AJ9" s="121"/>
+      <c r="AK9" s="123"/>
+      <c r="AL9" s="124"/>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
@@ -10459,43 +11169,43 @@
     </row>
     <row r="10" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="129"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="128"/>
       <c r="G10" s="96"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="124"/>
-      <c r="Q10" s="124"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="122"/>
-      <c r="Z10" s="122"/>
-      <c r="AA10" s="124"/>
-      <c r="AB10" s="124"/>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="124"/>
-      <c r="AE10" s="124"/>
-      <c r="AF10" s="122"/>
-      <c r="AG10" s="122"/>
-      <c r="AH10" s="124"/>
-      <c r="AI10" s="124"/>
-      <c r="AJ10" s="122"/>
-      <c r="AK10" s="124"/>
-      <c r="AL10" s="125"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="123"/>
+      <c r="V10" s="123"/>
+      <c r="W10" s="123"/>
+      <c r="X10" s="123"/>
+      <c r="Y10" s="121"/>
+      <c r="Z10" s="121"/>
+      <c r="AA10" s="123"/>
+      <c r="AB10" s="123"/>
+      <c r="AC10" s="123"/>
+      <c r="AD10" s="123"/>
+      <c r="AE10" s="123"/>
+      <c r="AF10" s="121"/>
+      <c r="AG10" s="121"/>
+      <c r="AH10" s="123"/>
+      <c r="AI10" s="123"/>
+      <c r="AJ10" s="121"/>
+      <c r="AK10" s="123"/>
+      <c r="AL10" s="124"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
@@ -10520,43 +11230,43 @@
     </row>
     <row r="11" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="120"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="119"/>
       <c r="G11" s="96"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="124"/>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="124"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="122"/>
-      <c r="Z11" s="122"/>
-      <c r="AA11" s="124"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="124"/>
-      <c r="AD11" s="124"/>
-      <c r="AE11" s="124"/>
-      <c r="AF11" s="122"/>
-      <c r="AG11" s="122"/>
-      <c r="AH11" s="124"/>
-      <c r="AI11" s="124"/>
-      <c r="AJ11" s="122"/>
-      <c r="AK11" s="124"/>
-      <c r="AL11" s="125"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="121"/>
+      <c r="S11" s="121"/>
+      <c r="T11" s="123"/>
+      <c r="U11" s="123"/>
+      <c r="V11" s="123"/>
+      <c r="W11" s="123"/>
+      <c r="X11" s="123"/>
+      <c r="Y11" s="121"/>
+      <c r="Z11" s="121"/>
+      <c r="AA11" s="123"/>
+      <c r="AB11" s="123"/>
+      <c r="AC11" s="123"/>
+      <c r="AD11" s="123"/>
+      <c r="AE11" s="123"/>
+      <c r="AF11" s="121"/>
+      <c r="AG11" s="121"/>
+      <c r="AH11" s="123"/>
+      <c r="AI11" s="123"/>
+      <c r="AJ11" s="121"/>
+      <c r="AK11" s="123"/>
+      <c r="AL11" s="124"/>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
@@ -10581,43 +11291,43 @@
     </row>
     <row r="12" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="120"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="119"/>
       <c r="G12" s="96"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="124"/>
-      <c r="Q12" s="124"/>
-      <c r="R12" s="122"/>
-      <c r="S12" s="122"/>
-      <c r="T12" s="124"/>
-      <c r="U12" s="124"/>
-      <c r="V12" s="124"/>
-      <c r="W12" s="124"/>
-      <c r="X12" s="124"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="122"/>
-      <c r="AA12" s="124"/>
-      <c r="AB12" s="124"/>
-      <c r="AC12" s="124"/>
-      <c r="AD12" s="124"/>
-      <c r="AE12" s="124"/>
-      <c r="AF12" s="122"/>
-      <c r="AG12" s="122"/>
-      <c r="AH12" s="124"/>
-      <c r="AI12" s="124"/>
-      <c r="AJ12" s="122"/>
-      <c r="AK12" s="124"/>
-      <c r="AL12" s="125"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="121"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="123"/>
+      <c r="V12" s="123"/>
+      <c r="W12" s="123"/>
+      <c r="X12" s="123"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="121"/>
+      <c r="AA12" s="123"/>
+      <c r="AB12" s="123"/>
+      <c r="AC12" s="123"/>
+      <c r="AD12" s="123"/>
+      <c r="AE12" s="123"/>
+      <c r="AF12" s="121"/>
+      <c r="AG12" s="121"/>
+      <c r="AH12" s="123"/>
+      <c r="AI12" s="123"/>
+      <c r="AJ12" s="121"/>
+      <c r="AK12" s="123"/>
+      <c r="AL12" s="124"/>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
@@ -10640,43 +11350,43 @@
     </row>
     <row r="13" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="120"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="119"/>
       <c r="G13" s="96"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="124"/>
-      <c r="P13" s="124"/>
-      <c r="Q13" s="124"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="124"/>
-      <c r="U13" s="124"/>
-      <c r="V13" s="124"/>
-      <c r="W13" s="124"/>
-      <c r="X13" s="124"/>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="124"/>
-      <c r="AB13" s="124"/>
-      <c r="AC13" s="124"/>
-      <c r="AD13" s="124"/>
-      <c r="AE13" s="124"/>
-      <c r="AF13" s="122"/>
-      <c r="AG13" s="122"/>
-      <c r="AH13" s="124"/>
-      <c r="AI13" s="124"/>
-      <c r="AJ13" s="122"/>
-      <c r="AK13" s="124"/>
-      <c r="AL13" s="125"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="121"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="123"/>
+      <c r="V13" s="123"/>
+      <c r="W13" s="123"/>
+      <c r="X13" s="123"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="121"/>
+      <c r="AA13" s="123"/>
+      <c r="AB13" s="123"/>
+      <c r="AC13" s="123"/>
+      <c r="AD13" s="123"/>
+      <c r="AE13" s="123"/>
+      <c r="AF13" s="121"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="123"/>
+      <c r="AI13" s="123"/>
+      <c r="AJ13" s="121"/>
+      <c r="AK13" s="123"/>
+      <c r="AL13" s="124"/>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
@@ -10699,43 +11409,43 @@
     </row>
     <row r="14" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="120"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="119"/>
       <c r="G14" s="96"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="124"/>
-      <c r="R14" s="122"/>
-      <c r="S14" s="122"/>
-      <c r="T14" s="124"/>
-      <c r="U14" s="124"/>
-      <c r="V14" s="124"/>
-      <c r="W14" s="124"/>
-      <c r="X14" s="124"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="122"/>
-      <c r="AA14" s="124"/>
-      <c r="AB14" s="124"/>
-      <c r="AC14" s="124"/>
-      <c r="AD14" s="124"/>
-      <c r="AE14" s="124"/>
-      <c r="AF14" s="122"/>
-      <c r="AG14" s="122"/>
-      <c r="AH14" s="124"/>
-      <c r="AI14" s="124"/>
-      <c r="AJ14" s="122"/>
-      <c r="AK14" s="124"/>
-      <c r="AL14" s="125"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="121"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="123"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="123"/>
+      <c r="W14" s="123"/>
+      <c r="X14" s="123"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="121"/>
+      <c r="AA14" s="123"/>
+      <c r="AB14" s="123"/>
+      <c r="AC14" s="123"/>
+      <c r="AD14" s="123"/>
+      <c r="AE14" s="123"/>
+      <c r="AF14" s="121"/>
+      <c r="AG14" s="121"/>
+      <c r="AH14" s="123"/>
+      <c r="AI14" s="123"/>
+      <c r="AJ14" s="121"/>
+      <c r="AK14" s="123"/>
+      <c r="AL14" s="124"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
@@ -10758,43 +11468,43 @@
     </row>
     <row r="15" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="120"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="119"/>
       <c r="G15" s="96"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="124"/>
-      <c r="P15" s="124"/>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="122"/>
-      <c r="S15" s="122"/>
-      <c r="T15" s="124"/>
-      <c r="U15" s="124"/>
-      <c r="V15" s="124"/>
-      <c r="W15" s="124"/>
-      <c r="X15" s="124"/>
-      <c r="Y15" s="122"/>
-      <c r="Z15" s="122"/>
-      <c r="AA15" s="124"/>
-      <c r="AB15" s="124"/>
-      <c r="AC15" s="124"/>
-      <c r="AD15" s="124"/>
-      <c r="AE15" s="124"/>
-      <c r="AF15" s="122"/>
-      <c r="AG15" s="122"/>
-      <c r="AH15" s="124"/>
-      <c r="AI15" s="124"/>
-      <c r="AJ15" s="122"/>
-      <c r="AK15" s="124"/>
-      <c r="AL15" s="125"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="121"/>
+      <c r="S15" s="121"/>
+      <c r="T15" s="123"/>
+      <c r="U15" s="123"/>
+      <c r="V15" s="123"/>
+      <c r="W15" s="123"/>
+      <c r="X15" s="123"/>
+      <c r="Y15" s="121"/>
+      <c r="Z15" s="121"/>
+      <c r="AA15" s="123"/>
+      <c r="AB15" s="123"/>
+      <c r="AC15" s="123"/>
+      <c r="AD15" s="123"/>
+      <c r="AE15" s="123"/>
+      <c r="AF15" s="121"/>
+      <c r="AG15" s="121"/>
+      <c r="AH15" s="123"/>
+      <c r="AI15" s="123"/>
+      <c r="AJ15" s="121"/>
+      <c r="AK15" s="123"/>
+      <c r="AL15" s="124"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
@@ -10817,43 +11527,43 @@
     </row>
     <row r="16" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="150"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="149"/>
       <c r="G16" s="96"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="124"/>
-      <c r="P16" s="124"/>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="122"/>
-      <c r="S16" s="122"/>
-      <c r="T16" s="124"/>
-      <c r="U16" s="124"/>
-      <c r="V16" s="124"/>
-      <c r="W16" s="124"/>
-      <c r="X16" s="124"/>
-      <c r="Y16" s="122"/>
-      <c r="Z16" s="122"/>
-      <c r="AA16" s="124"/>
-      <c r="AB16" s="124"/>
-      <c r="AC16" s="124"/>
-      <c r="AD16" s="124"/>
-      <c r="AE16" s="124"/>
-      <c r="AF16" s="122"/>
-      <c r="AG16" s="122"/>
-      <c r="AH16" s="124"/>
-      <c r="AI16" s="124"/>
-      <c r="AJ16" s="122"/>
-      <c r="AK16" s="124"/>
-      <c r="AL16" s="125"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="121"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="123"/>
+      <c r="U16" s="123"/>
+      <c r="V16" s="123"/>
+      <c r="W16" s="123"/>
+      <c r="X16" s="123"/>
+      <c r="Y16" s="121"/>
+      <c r="Z16" s="121"/>
+      <c r="AA16" s="123"/>
+      <c r="AB16" s="123"/>
+      <c r="AC16" s="123"/>
+      <c r="AD16" s="123"/>
+      <c r="AE16" s="123"/>
+      <c r="AF16" s="121"/>
+      <c r="AG16" s="121"/>
+      <c r="AH16" s="123"/>
+      <c r="AI16" s="123"/>
+      <c r="AJ16" s="121"/>
+      <c r="AK16" s="123"/>
+      <c r="AL16" s="124"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
@@ -10876,43 +11586,43 @@
     </row>
     <row r="17" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="120"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="119"/>
       <c r="G17" s="96"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="122"/>
-      <c r="S17" s="122"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="124"/>
-      <c r="Y17" s="122"/>
-      <c r="Z17" s="122"/>
-      <c r="AA17" s="124"/>
-      <c r="AB17" s="124"/>
-      <c r="AC17" s="124"/>
-      <c r="AD17" s="124"/>
-      <c r="AE17" s="124"/>
-      <c r="AF17" s="122"/>
-      <c r="AG17" s="122"/>
-      <c r="AH17" s="124"/>
-      <c r="AI17" s="124"/>
-      <c r="AJ17" s="122"/>
-      <c r="AK17" s="124"/>
-      <c r="AL17" s="125"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="121"/>
+      <c r="S17" s="121"/>
+      <c r="T17" s="123"/>
+      <c r="U17" s="123"/>
+      <c r="V17" s="123"/>
+      <c r="W17" s="123"/>
+      <c r="X17" s="123"/>
+      <c r="Y17" s="121"/>
+      <c r="Z17" s="121"/>
+      <c r="AA17" s="123"/>
+      <c r="AB17" s="123"/>
+      <c r="AC17" s="123"/>
+      <c r="AD17" s="123"/>
+      <c r="AE17" s="123"/>
+      <c r="AF17" s="121"/>
+      <c r="AG17" s="121"/>
+      <c r="AH17" s="123"/>
+      <c r="AI17" s="123"/>
+      <c r="AJ17" s="121"/>
+      <c r="AK17" s="123"/>
+      <c r="AL17" s="124"/>
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
@@ -10935,43 +11645,43 @@
     </row>
     <row r="18" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="133"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="132"/>
       <c r="G18" s="96"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="124"/>
-      <c r="R18" s="122"/>
-      <c r="S18" s="122"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="124"/>
-      <c r="V18" s="124"/>
-      <c r="W18" s="124"/>
-      <c r="X18" s="124"/>
-      <c r="Y18" s="122"/>
-      <c r="Z18" s="122"/>
-      <c r="AA18" s="124"/>
-      <c r="AB18" s="124"/>
-      <c r="AC18" s="124"/>
-      <c r="AD18" s="124"/>
-      <c r="AE18" s="124"/>
-      <c r="AF18" s="122"/>
-      <c r="AG18" s="122"/>
-      <c r="AH18" s="124"/>
-      <c r="AI18" s="124"/>
-      <c r="AJ18" s="122"/>
-      <c r="AK18" s="124"/>
-      <c r="AL18" s="125"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="121"/>
+      <c r="S18" s="121"/>
+      <c r="T18" s="123"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="123"/>
+      <c r="W18" s="123"/>
+      <c r="X18" s="123"/>
+      <c r="Y18" s="121"/>
+      <c r="Z18" s="121"/>
+      <c r="AA18" s="123"/>
+      <c r="AB18" s="123"/>
+      <c r="AC18" s="123"/>
+      <c r="AD18" s="123"/>
+      <c r="AE18" s="123"/>
+      <c r="AF18" s="121"/>
+      <c r="AG18" s="121"/>
+      <c r="AH18" s="123"/>
+      <c r="AI18" s="123"/>
+      <c r="AJ18" s="121"/>
+      <c r="AK18" s="123"/>
+      <c r="AL18" s="124"/>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
@@ -10994,43 +11704,43 @@
     </row>
     <row r="19" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="133"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="96"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="122"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="124"/>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="124"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="122"/>
-      <c r="T19" s="124"/>
-      <c r="U19" s="124"/>
-      <c r="V19" s="124"/>
-      <c r="W19" s="124"/>
-      <c r="X19" s="124"/>
-      <c r="Y19" s="122"/>
-      <c r="Z19" s="122"/>
-      <c r="AA19" s="124"/>
-      <c r="AB19" s="124"/>
-      <c r="AC19" s="124"/>
-      <c r="AD19" s="124"/>
-      <c r="AE19" s="124"/>
-      <c r="AF19" s="122"/>
-      <c r="AG19" s="122"/>
-      <c r="AH19" s="124"/>
-      <c r="AI19" s="124"/>
-      <c r="AJ19" s="122"/>
-      <c r="AK19" s="124"/>
-      <c r="AL19" s="125"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="121"/>
+      <c r="S19" s="121"/>
+      <c r="T19" s="123"/>
+      <c r="U19" s="123"/>
+      <c r="V19" s="123"/>
+      <c r="W19" s="123"/>
+      <c r="X19" s="123"/>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="121"/>
+      <c r="AA19" s="123"/>
+      <c r="AB19" s="123"/>
+      <c r="AC19" s="123"/>
+      <c r="AD19" s="123"/>
+      <c r="AE19" s="123"/>
+      <c r="AF19" s="121"/>
+      <c r="AG19" s="121"/>
+      <c r="AH19" s="123"/>
+      <c r="AI19" s="123"/>
+      <c r="AJ19" s="121"/>
+      <c r="AK19" s="123"/>
+      <c r="AL19" s="124"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
@@ -11053,43 +11763,43 @@
     </row>
     <row r="20" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="133"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="132"/>
       <c r="G20" s="96"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="124"/>
-      <c r="R20" s="122"/>
-      <c r="S20" s="122"/>
-      <c r="T20" s="124"/>
-      <c r="U20" s="124"/>
-      <c r="V20" s="124"/>
-      <c r="W20" s="124"/>
-      <c r="X20" s="124"/>
-      <c r="Y20" s="122"/>
-      <c r="Z20" s="122"/>
-      <c r="AA20" s="124"/>
-      <c r="AB20" s="124"/>
-      <c r="AC20" s="124"/>
-      <c r="AD20" s="124"/>
-      <c r="AE20" s="124"/>
-      <c r="AF20" s="122"/>
-      <c r="AG20" s="122"/>
-      <c r="AH20" s="124"/>
-      <c r="AI20" s="124"/>
-      <c r="AJ20" s="122"/>
-      <c r="AK20" s="124"/>
-      <c r="AL20" s="125"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="121"/>
+      <c r="S20" s="121"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="123"/>
+      <c r="W20" s="123"/>
+      <c r="X20" s="123"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="121"/>
+      <c r="AA20" s="123"/>
+      <c r="AB20" s="123"/>
+      <c r="AC20" s="123"/>
+      <c r="AD20" s="123"/>
+      <c r="AE20" s="123"/>
+      <c r="AF20" s="121"/>
+      <c r="AG20" s="121"/>
+      <c r="AH20" s="123"/>
+      <c r="AI20" s="123"/>
+      <c r="AJ20" s="121"/>
+      <c r="AK20" s="123"/>
+      <c r="AL20" s="124"/>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
@@ -11112,43 +11822,43 @@
     </row>
     <row r="21" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="133"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="96"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="122"/>
-      <c r="S21" s="122"/>
-      <c r="T21" s="124"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="124"/>
-      <c r="W21" s="124"/>
-      <c r="X21" s="124"/>
-      <c r="Y21" s="122"/>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="124"/>
-      <c r="AB21" s="124"/>
-      <c r="AC21" s="124"/>
-      <c r="AD21" s="124"/>
-      <c r="AE21" s="124"/>
-      <c r="AF21" s="122"/>
-      <c r="AG21" s="122"/>
-      <c r="AH21" s="124"/>
-      <c r="AI21" s="124"/>
-      <c r="AJ21" s="122"/>
-      <c r="AK21" s="124"/>
-      <c r="AL21" s="125"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="121"/>
+      <c r="S21" s="121"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="123"/>
+      <c r="V21" s="123"/>
+      <c r="W21" s="123"/>
+      <c r="X21" s="123"/>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="121"/>
+      <c r="AA21" s="123"/>
+      <c r="AB21" s="123"/>
+      <c r="AC21" s="123"/>
+      <c r="AD21" s="123"/>
+      <c r="AE21" s="123"/>
+      <c r="AF21" s="121"/>
+      <c r="AG21" s="121"/>
+      <c r="AH21" s="123"/>
+      <c r="AI21" s="123"/>
+      <c r="AJ21" s="121"/>
+      <c r="AK21" s="123"/>
+      <c r="AL21" s="124"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
@@ -11171,43 +11881,43 @@
     </row>
     <row r="22" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="133"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="96"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="124"/>
-      <c r="Q22" s="124"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="122"/>
-      <c r="T22" s="124"/>
-      <c r="U22" s="124"/>
-      <c r="V22" s="124"/>
-      <c r="W22" s="124"/>
-      <c r="X22" s="124"/>
-      <c r="Y22" s="122"/>
-      <c r="Z22" s="122"/>
-      <c r="AA22" s="124"/>
-      <c r="AB22" s="124"/>
-      <c r="AC22" s="124"/>
-      <c r="AD22" s="124"/>
-      <c r="AE22" s="124"/>
-      <c r="AF22" s="122"/>
-      <c r="AG22" s="122"/>
-      <c r="AH22" s="124"/>
-      <c r="AI22" s="124"/>
-      <c r="AJ22" s="122"/>
-      <c r="AK22" s="124"/>
-      <c r="AL22" s="125"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="121"/>
+      <c r="S22" s="121"/>
+      <c r="T22" s="123"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="123"/>
+      <c r="W22" s="123"/>
+      <c r="X22" s="123"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="121"/>
+      <c r="AA22" s="123"/>
+      <c r="AB22" s="123"/>
+      <c r="AC22" s="123"/>
+      <c r="AD22" s="123"/>
+      <c r="AE22" s="123"/>
+      <c r="AF22" s="121"/>
+      <c r="AG22" s="121"/>
+      <c r="AH22" s="123"/>
+      <c r="AI22" s="123"/>
+      <c r="AJ22" s="121"/>
+      <c r="AK22" s="123"/>
+      <c r="AL22" s="124"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
@@ -11230,43 +11940,43 @@
     </row>
     <row r="23" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="133"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="132"/>
       <c r="G23" s="96"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="122"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="124"/>
-      <c r="P23" s="124"/>
-      <c r="Q23" s="124"/>
-      <c r="R23" s="122"/>
-      <c r="S23" s="122"/>
-      <c r="T23" s="124"/>
-      <c r="U23" s="124"/>
-      <c r="V23" s="124"/>
-      <c r="W23" s="124"/>
-      <c r="X23" s="124"/>
-      <c r="Y23" s="122"/>
-      <c r="Z23" s="122"/>
-      <c r="AA23" s="124"/>
-      <c r="AB23" s="124"/>
-      <c r="AC23" s="124"/>
-      <c r="AD23" s="124"/>
-      <c r="AE23" s="124"/>
-      <c r="AF23" s="122"/>
-      <c r="AG23" s="122"/>
-      <c r="AH23" s="124"/>
-      <c r="AI23" s="124"/>
-      <c r="AJ23" s="122"/>
-      <c r="AK23" s="124"/>
-      <c r="AL23" s="125"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="121"/>
+      <c r="S23" s="121"/>
+      <c r="T23" s="123"/>
+      <c r="U23" s="123"/>
+      <c r="V23" s="123"/>
+      <c r="W23" s="123"/>
+      <c r="X23" s="123"/>
+      <c r="Y23" s="121"/>
+      <c r="Z23" s="121"/>
+      <c r="AA23" s="123"/>
+      <c r="AB23" s="123"/>
+      <c r="AC23" s="123"/>
+      <c r="AD23" s="123"/>
+      <c r="AE23" s="123"/>
+      <c r="AF23" s="121"/>
+      <c r="AG23" s="121"/>
+      <c r="AH23" s="123"/>
+      <c r="AI23" s="123"/>
+      <c r="AJ23" s="121"/>
+      <c r="AK23" s="123"/>
+      <c r="AL23" s="124"/>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
@@ -11289,43 +11999,43 @@
     </row>
     <row r="24" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="133"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="132"/>
       <c r="G24" s="96"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="122"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="124"/>
-      <c r="P24" s="124"/>
-      <c r="Q24" s="124"/>
-      <c r="R24" s="122"/>
-      <c r="S24" s="122"/>
-      <c r="T24" s="124"/>
-      <c r="U24" s="124"/>
-      <c r="V24" s="124"/>
-      <c r="W24" s="124"/>
-      <c r="X24" s="124"/>
-      <c r="Y24" s="122"/>
-      <c r="Z24" s="122"/>
-      <c r="AA24" s="124"/>
-      <c r="AB24" s="124"/>
-      <c r="AC24" s="124"/>
-      <c r="AD24" s="124"/>
-      <c r="AE24" s="124"/>
-      <c r="AF24" s="122"/>
-      <c r="AG24" s="122"/>
-      <c r="AH24" s="124"/>
-      <c r="AI24" s="124"/>
-      <c r="AJ24" s="122"/>
-      <c r="AK24" s="124"/>
-      <c r="AL24" s="125"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="121"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="123"/>
+      <c r="U24" s="123"/>
+      <c r="V24" s="123"/>
+      <c r="W24" s="123"/>
+      <c r="X24" s="123"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="121"/>
+      <c r="AA24" s="123"/>
+      <c r="AB24" s="123"/>
+      <c r="AC24" s="123"/>
+      <c r="AD24" s="123"/>
+      <c r="AE24" s="123"/>
+      <c r="AF24" s="121"/>
+      <c r="AG24" s="121"/>
+      <c r="AH24" s="123"/>
+      <c r="AI24" s="123"/>
+      <c r="AJ24" s="121"/>
+      <c r="AK24" s="123"/>
+      <c r="AL24" s="124"/>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
@@ -11348,43 +12058,43 @@
     </row>
     <row r="25" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="133"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="132"/>
       <c r="G25" s="96"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="124"/>
-      <c r="U25" s="124"/>
-      <c r="V25" s="124"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="124"/>
-      <c r="Y25" s="122"/>
-      <c r="Z25" s="122"/>
-      <c r="AA25" s="124"/>
-      <c r="AB25" s="124"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="124"/>
-      <c r="AE25" s="124"/>
-      <c r="AF25" s="122"/>
-      <c r="AG25" s="122"/>
-      <c r="AH25" s="124"/>
-      <c r="AI25" s="124"/>
-      <c r="AJ25" s="122"/>
-      <c r="AK25" s="124"/>
-      <c r="AL25" s="125"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="121"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="123"/>
+      <c r="U25" s="123"/>
+      <c r="V25" s="123"/>
+      <c r="W25" s="123"/>
+      <c r="X25" s="123"/>
+      <c r="Y25" s="121"/>
+      <c r="Z25" s="121"/>
+      <c r="AA25" s="123"/>
+      <c r="AB25" s="123"/>
+      <c r="AC25" s="123"/>
+      <c r="AD25" s="123"/>
+      <c r="AE25" s="123"/>
+      <c r="AF25" s="121"/>
+      <c r="AG25" s="121"/>
+      <c r="AH25" s="123"/>
+      <c r="AI25" s="123"/>
+      <c r="AJ25" s="121"/>
+      <c r="AK25" s="123"/>
+      <c r="AL25" s="124"/>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
@@ -11407,43 +12117,43 @@
     </row>
     <row r="26" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="133"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="132"/>
       <c r="G26" s="96"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="124"/>
-      <c r="P26" s="124"/>
-      <c r="Q26" s="124"/>
-      <c r="R26" s="122"/>
-      <c r="S26" s="122"/>
-      <c r="T26" s="124"/>
-      <c r="U26" s="124"/>
-      <c r="V26" s="124"/>
-      <c r="W26" s="124"/>
-      <c r="X26" s="124"/>
-      <c r="Y26" s="122"/>
-      <c r="Z26" s="122"/>
-      <c r="AA26" s="124"/>
-      <c r="AB26" s="124"/>
-      <c r="AC26" s="124"/>
-      <c r="AD26" s="124"/>
-      <c r="AE26" s="124"/>
-      <c r="AF26" s="122"/>
-      <c r="AG26" s="122"/>
-      <c r="AH26" s="124"/>
-      <c r="AI26" s="124"/>
-      <c r="AJ26" s="122"/>
-      <c r="AK26" s="124"/>
-      <c r="AL26" s="125"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="121"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="123"/>
+      <c r="U26" s="123"/>
+      <c r="V26" s="123"/>
+      <c r="W26" s="123"/>
+      <c r="X26" s="123"/>
+      <c r="Y26" s="121"/>
+      <c r="Z26" s="121"/>
+      <c r="AA26" s="123"/>
+      <c r="AB26" s="123"/>
+      <c r="AC26" s="123"/>
+      <c r="AD26" s="123"/>
+      <c r="AE26" s="123"/>
+      <c r="AF26" s="121"/>
+      <c r="AG26" s="121"/>
+      <c r="AH26" s="123"/>
+      <c r="AI26" s="123"/>
+      <c r="AJ26" s="121"/>
+      <c r="AK26" s="123"/>
+      <c r="AL26" s="124"/>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
@@ -11466,43 +12176,43 @@
     </row>
     <row r="27" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="133"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="132"/>
       <c r="G27" s="96"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="122"/>
-      <c r="K27" s="122"/>
-      <c r="L27" s="122"/>
-      <c r="M27" s="122"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="124"/>
-      <c r="P27" s="124"/>
-      <c r="Q27" s="124"/>
-      <c r="R27" s="122"/>
-      <c r="S27" s="122"/>
-      <c r="T27" s="124"/>
-      <c r="U27" s="124"/>
-      <c r="V27" s="124"/>
-      <c r="W27" s="124"/>
-      <c r="X27" s="124"/>
-      <c r="Y27" s="122"/>
-      <c r="Z27" s="122"/>
-      <c r="AA27" s="124"/>
-      <c r="AB27" s="124"/>
-      <c r="AC27" s="124"/>
-      <c r="AD27" s="124"/>
-      <c r="AE27" s="124"/>
-      <c r="AF27" s="122"/>
-      <c r="AG27" s="122"/>
-      <c r="AH27" s="124"/>
-      <c r="AI27" s="124"/>
-      <c r="AJ27" s="122"/>
-      <c r="AK27" s="124"/>
-      <c r="AL27" s="125"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="123"/>
+      <c r="U27" s="123"/>
+      <c r="V27" s="123"/>
+      <c r="W27" s="123"/>
+      <c r="X27" s="123"/>
+      <c r="Y27" s="121"/>
+      <c r="Z27" s="121"/>
+      <c r="AA27" s="123"/>
+      <c r="AB27" s="123"/>
+      <c r="AC27" s="123"/>
+      <c r="AD27" s="123"/>
+      <c r="AE27" s="123"/>
+      <c r="AF27" s="121"/>
+      <c r="AG27" s="121"/>
+      <c r="AH27" s="123"/>
+      <c r="AI27" s="123"/>
+      <c r="AJ27" s="121"/>
+      <c r="AK27" s="123"/>
+      <c r="AL27" s="124"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
@@ -11525,43 +12235,43 @@
     </row>
     <row r="28" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="133"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="132"/>
       <c r="G28" s="96"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="122"/>
-      <c r="L28" s="122"/>
-      <c r="M28" s="122"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="124"/>
-      <c r="P28" s="124"/>
-      <c r="Q28" s="124"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="122"/>
-      <c r="T28" s="124"/>
-      <c r="U28" s="124"/>
-      <c r="V28" s="124"/>
-      <c r="W28" s="124"/>
-      <c r="X28" s="124"/>
-      <c r="Y28" s="122"/>
-      <c r="Z28" s="122"/>
-      <c r="AA28" s="124"/>
-      <c r="AB28" s="124"/>
-      <c r="AC28" s="124"/>
-      <c r="AD28" s="124"/>
-      <c r="AE28" s="124"/>
-      <c r="AF28" s="122"/>
-      <c r="AG28" s="122"/>
-      <c r="AH28" s="124"/>
-      <c r="AI28" s="124"/>
-      <c r="AJ28" s="122"/>
-      <c r="AK28" s="124"/>
-      <c r="AL28" s="125"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="123"/>
+      <c r="U28" s="123"/>
+      <c r="V28" s="123"/>
+      <c r="W28" s="123"/>
+      <c r="X28" s="123"/>
+      <c r="Y28" s="121"/>
+      <c r="Z28" s="121"/>
+      <c r="AA28" s="123"/>
+      <c r="AB28" s="123"/>
+      <c r="AC28" s="123"/>
+      <c r="AD28" s="123"/>
+      <c r="AE28" s="123"/>
+      <c r="AF28" s="121"/>
+      <c r="AG28" s="121"/>
+      <c r="AH28" s="123"/>
+      <c r="AI28" s="123"/>
+      <c r="AJ28" s="121"/>
+      <c r="AK28" s="123"/>
+      <c r="AL28" s="124"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
@@ -11584,43 +12294,43 @@
     </row>
     <row r="29" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="133"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="132"/>
       <c r="G29" s="96"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="122"/>
-      <c r="M29" s="122"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="124"/>
-      <c r="P29" s="124"/>
-      <c r="Q29" s="124"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="122"/>
-      <c r="T29" s="124"/>
-      <c r="U29" s="124"/>
-      <c r="V29" s="124"/>
-      <c r="W29" s="124"/>
-      <c r="X29" s="124"/>
-      <c r="Y29" s="122"/>
-      <c r="Z29" s="122"/>
-      <c r="AA29" s="124"/>
-      <c r="AB29" s="124"/>
-      <c r="AC29" s="124"/>
-      <c r="AD29" s="124"/>
-      <c r="AE29" s="124"/>
-      <c r="AF29" s="122"/>
-      <c r="AG29" s="122"/>
-      <c r="AH29" s="124"/>
-      <c r="AI29" s="124"/>
-      <c r="AJ29" s="122"/>
-      <c r="AK29" s="124"/>
-      <c r="AL29" s="125"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="123"/>
+      <c r="U29" s="123"/>
+      <c r="V29" s="123"/>
+      <c r="W29" s="123"/>
+      <c r="X29" s="123"/>
+      <c r="Y29" s="121"/>
+      <c r="Z29" s="121"/>
+      <c r="AA29" s="123"/>
+      <c r="AB29" s="123"/>
+      <c r="AC29" s="123"/>
+      <c r="AD29" s="123"/>
+      <c r="AE29" s="123"/>
+      <c r="AF29" s="121"/>
+      <c r="AG29" s="121"/>
+      <c r="AH29" s="123"/>
+      <c r="AI29" s="123"/>
+      <c r="AJ29" s="121"/>
+      <c r="AK29" s="123"/>
+      <c r="AL29" s="124"/>
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
@@ -11643,43 +12353,43 @@
     </row>
     <row r="30" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="133"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="132"/>
       <c r="G30" s="96"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="122"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="123"/>
-      <c r="O30" s="124"/>
-      <c r="P30" s="124"/>
-      <c r="Q30" s="124"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="122"/>
-      <c r="T30" s="124"/>
-      <c r="U30" s="124"/>
-      <c r="V30" s="124"/>
-      <c r="W30" s="124"/>
-      <c r="X30" s="124"/>
-      <c r="Y30" s="122"/>
-      <c r="Z30" s="122"/>
-      <c r="AA30" s="124"/>
-      <c r="AB30" s="124"/>
-      <c r="AC30" s="124"/>
-      <c r="AD30" s="124"/>
-      <c r="AE30" s="124"/>
-      <c r="AF30" s="122"/>
-      <c r="AG30" s="122"/>
-      <c r="AH30" s="124"/>
-      <c r="AI30" s="124"/>
-      <c r="AJ30" s="122"/>
-      <c r="AK30" s="124"/>
-      <c r="AL30" s="125"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="123"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="121"/>
+      <c r="S30" s="121"/>
+      <c r="T30" s="123"/>
+      <c r="U30" s="123"/>
+      <c r="V30" s="123"/>
+      <c r="W30" s="123"/>
+      <c r="X30" s="123"/>
+      <c r="Y30" s="121"/>
+      <c r="Z30" s="121"/>
+      <c r="AA30" s="123"/>
+      <c r="AB30" s="123"/>
+      <c r="AC30" s="123"/>
+      <c r="AD30" s="123"/>
+      <c r="AE30" s="123"/>
+      <c r="AF30" s="121"/>
+      <c r="AG30" s="121"/>
+      <c r="AH30" s="123"/>
+      <c r="AI30" s="123"/>
+      <c r="AJ30" s="121"/>
+      <c r="AK30" s="123"/>
+      <c r="AL30" s="124"/>
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
@@ -11702,43 +12412,43 @@
     </row>
     <row r="31" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="133"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="132"/>
       <c r="G31" s="96"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="124"/>
-      <c r="P31" s="124"/>
-      <c r="Q31" s="124"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="122"/>
-      <c r="T31" s="124"/>
-      <c r="U31" s="124"/>
-      <c r="V31" s="124"/>
-      <c r="W31" s="124"/>
-      <c r="X31" s="124"/>
-      <c r="Y31" s="122"/>
-      <c r="Z31" s="122"/>
-      <c r="AA31" s="124"/>
-      <c r="AB31" s="124"/>
-      <c r="AC31" s="124"/>
-      <c r="AD31" s="124"/>
-      <c r="AE31" s="124"/>
-      <c r="AF31" s="122"/>
-      <c r="AG31" s="122"/>
-      <c r="AH31" s="124"/>
-      <c r="AI31" s="124"/>
-      <c r="AJ31" s="122"/>
-      <c r="AK31" s="124"/>
-      <c r="AL31" s="125"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="121"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="123"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="121"/>
+      <c r="S31" s="121"/>
+      <c r="T31" s="123"/>
+      <c r="U31" s="123"/>
+      <c r="V31" s="123"/>
+      <c r="W31" s="123"/>
+      <c r="X31" s="123"/>
+      <c r="Y31" s="121"/>
+      <c r="Z31" s="121"/>
+      <c r="AA31" s="123"/>
+      <c r="AB31" s="123"/>
+      <c r="AC31" s="123"/>
+      <c r="AD31" s="123"/>
+      <c r="AE31" s="123"/>
+      <c r="AF31" s="121"/>
+      <c r="AG31" s="121"/>
+      <c r="AH31" s="123"/>
+      <c r="AI31" s="123"/>
+      <c r="AJ31" s="121"/>
+      <c r="AK31" s="123"/>
+      <c r="AL31" s="124"/>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
@@ -11761,43 +12471,43 @@
     </row>
     <row r="32" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="133"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="132"/>
       <c r="G32" s="96"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="122"/>
-      <c r="L32" s="122"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="124"/>
-      <c r="P32" s="124"/>
-      <c r="Q32" s="124"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="124"/>
-      <c r="U32" s="124"/>
-      <c r="V32" s="124"/>
-      <c r="W32" s="124"/>
-      <c r="X32" s="124"/>
-      <c r="Y32" s="122"/>
-      <c r="Z32" s="122"/>
-      <c r="AA32" s="124"/>
-      <c r="AB32" s="124"/>
-      <c r="AC32" s="124"/>
-      <c r="AD32" s="124"/>
-      <c r="AE32" s="124"/>
-      <c r="AF32" s="122"/>
-      <c r="AG32" s="122"/>
-      <c r="AH32" s="124"/>
-      <c r="AI32" s="124"/>
-      <c r="AJ32" s="122"/>
-      <c r="AK32" s="124"/>
-      <c r="AL32" s="125"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="121"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="121"/>
+      <c r="S32" s="121"/>
+      <c r="T32" s="123"/>
+      <c r="U32" s="123"/>
+      <c r="V32" s="123"/>
+      <c r="W32" s="123"/>
+      <c r="X32" s="123"/>
+      <c r="Y32" s="121"/>
+      <c r="Z32" s="121"/>
+      <c r="AA32" s="123"/>
+      <c r="AB32" s="123"/>
+      <c r="AC32" s="123"/>
+      <c r="AD32" s="123"/>
+      <c r="AE32" s="123"/>
+      <c r="AF32" s="121"/>
+      <c r="AG32" s="121"/>
+      <c r="AH32" s="123"/>
+      <c r="AI32" s="123"/>
+      <c r="AJ32" s="121"/>
+      <c r="AK32" s="123"/>
+      <c r="AL32" s="124"/>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
@@ -11820,43 +12530,43 @@
     </row>
     <row r="33" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="133"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="132"/>
       <c r="G33" s="96"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="124"/>
-      <c r="P33" s="124"/>
-      <c r="Q33" s="124"/>
-      <c r="R33" s="122"/>
-      <c r="S33" s="122"/>
-      <c r="T33" s="124"/>
-      <c r="U33" s="124"/>
-      <c r="V33" s="124"/>
-      <c r="W33" s="124"/>
-      <c r="X33" s="124"/>
-      <c r="Y33" s="122"/>
-      <c r="Z33" s="122"/>
-      <c r="AA33" s="124"/>
-      <c r="AB33" s="124"/>
-      <c r="AC33" s="124"/>
-      <c r="AD33" s="124"/>
-      <c r="AE33" s="124"/>
-      <c r="AF33" s="122"/>
-      <c r="AG33" s="122"/>
-      <c r="AH33" s="124"/>
-      <c r="AI33" s="124"/>
-      <c r="AJ33" s="122"/>
-      <c r="AK33" s="124"/>
-      <c r="AL33" s="125"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="121"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="121"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="121"/>
+      <c r="S33" s="121"/>
+      <c r="T33" s="123"/>
+      <c r="U33" s="123"/>
+      <c r="V33" s="123"/>
+      <c r="W33" s="123"/>
+      <c r="X33" s="123"/>
+      <c r="Y33" s="121"/>
+      <c r="Z33" s="121"/>
+      <c r="AA33" s="123"/>
+      <c r="AB33" s="123"/>
+      <c r="AC33" s="123"/>
+      <c r="AD33" s="123"/>
+      <c r="AE33" s="123"/>
+      <c r="AF33" s="121"/>
+      <c r="AG33" s="121"/>
+      <c r="AH33" s="123"/>
+      <c r="AI33" s="123"/>
+      <c r="AJ33" s="121"/>
+      <c r="AK33" s="123"/>
+      <c r="AL33" s="124"/>
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
@@ -11879,43 +12589,43 @@
     </row>
     <row r="34" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="133"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="132"/>
       <c r="G34" s="96"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="123"/>
-      <c r="O34" s="124"/>
-      <c r="P34" s="124"/>
-      <c r="Q34" s="124"/>
-      <c r="R34" s="122"/>
-      <c r="S34" s="122"/>
-      <c r="T34" s="124"/>
-      <c r="U34" s="124"/>
-      <c r="V34" s="124"/>
-      <c r="W34" s="124"/>
-      <c r="X34" s="124"/>
-      <c r="Y34" s="122"/>
-      <c r="Z34" s="122"/>
-      <c r="AA34" s="124"/>
-      <c r="AB34" s="124"/>
-      <c r="AC34" s="124"/>
-      <c r="AD34" s="124"/>
-      <c r="AE34" s="124"/>
-      <c r="AF34" s="122"/>
-      <c r="AG34" s="122"/>
-      <c r="AH34" s="124"/>
-      <c r="AI34" s="124"/>
-      <c r="AJ34" s="122"/>
-      <c r="AK34" s="124"/>
-      <c r="AL34" s="125"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="121"/>
+      <c r="K34" s="121"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="121"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="123"/>
+      <c r="Q34" s="123"/>
+      <c r="R34" s="121"/>
+      <c r="S34" s="121"/>
+      <c r="T34" s="123"/>
+      <c r="U34" s="123"/>
+      <c r="V34" s="123"/>
+      <c r="W34" s="123"/>
+      <c r="X34" s="123"/>
+      <c r="Y34" s="121"/>
+      <c r="Z34" s="121"/>
+      <c r="AA34" s="123"/>
+      <c r="AB34" s="123"/>
+      <c r="AC34" s="123"/>
+      <c r="AD34" s="123"/>
+      <c r="AE34" s="123"/>
+      <c r="AF34" s="121"/>
+      <c r="AG34" s="121"/>
+      <c r="AH34" s="123"/>
+      <c r="AI34" s="123"/>
+      <c r="AJ34" s="121"/>
+      <c r="AK34" s="123"/>
+      <c r="AL34" s="124"/>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
@@ -11938,43 +12648,43 @@
     </row>
     <row r="35" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="134"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="137"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="136"/>
       <c r="G35" s="96"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="139"/>
-      <c r="K35" s="139"/>
-      <c r="L35" s="139"/>
-      <c r="M35" s="139"/>
-      <c r="N35" s="140"/>
-      <c r="O35" s="141"/>
-      <c r="P35" s="141"/>
-      <c r="Q35" s="141"/>
-      <c r="R35" s="139"/>
-      <c r="S35" s="139"/>
-      <c r="T35" s="141"/>
-      <c r="U35" s="141"/>
-      <c r="V35" s="141"/>
-      <c r="W35" s="141"/>
-      <c r="X35" s="141"/>
-      <c r="Y35" s="139"/>
-      <c r="Z35" s="139"/>
-      <c r="AA35" s="141"/>
-      <c r="AB35" s="141"/>
-      <c r="AC35" s="141"/>
-      <c r="AD35" s="141"/>
-      <c r="AE35" s="141"/>
-      <c r="AF35" s="139"/>
-      <c r="AG35" s="139"/>
-      <c r="AH35" s="141"/>
-      <c r="AI35" s="141"/>
-      <c r="AJ35" s="139"/>
-      <c r="AK35" s="141"/>
-      <c r="AL35" s="142"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="138"/>
+      <c r="K35" s="138"/>
+      <c r="L35" s="138"/>
+      <c r="M35" s="138"/>
+      <c r="N35" s="139"/>
+      <c r="O35" s="140"/>
+      <c r="P35" s="140"/>
+      <c r="Q35" s="140"/>
+      <c r="R35" s="138"/>
+      <c r="S35" s="138"/>
+      <c r="T35" s="140"/>
+      <c r="U35" s="140"/>
+      <c r="V35" s="140"/>
+      <c r="W35" s="140"/>
+      <c r="X35" s="140"/>
+      <c r="Y35" s="138"/>
+      <c r="Z35" s="138"/>
+      <c r="AA35" s="140"/>
+      <c r="AB35" s="140"/>
+      <c r="AC35" s="140"/>
+      <c r="AD35" s="140"/>
+      <c r="AE35" s="140"/>
+      <c r="AF35" s="138"/>
+      <c r="AG35" s="138"/>
+      <c r="AH35" s="140"/>
+      <c r="AI35" s="140"/>
+      <c r="AJ35" s="138"/>
+      <c r="AK35" s="140"/>
+      <c r="AL35" s="141"/>
       <c r="AM35" s="1"/>
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
@@ -11997,45 +12707,45 @@
     </row>
     <row r="36" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="144" t="s">
+      <c r="B36" s="142"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="142"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="145"/>
-      <c r="H36" s="146"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="145"/>
       <c r="I36" s="105"/>
       <c r="J36" s="105"/>
       <c r="K36" s="105"/>
       <c r="L36" s="105"/>
       <c r="M36" s="105"/>
-      <c r="N36" s="147"/>
-      <c r="O36" s="148"/>
-      <c r="P36" s="148"/>
-      <c r="Q36" s="148"/>
+      <c r="N36" s="146"/>
+      <c r="O36" s="147"/>
+      <c r="P36" s="147"/>
+      <c r="Q36" s="147"/>
       <c r="R36" s="105"/>
       <c r="S36" s="105"/>
-      <c r="T36" s="148"/>
-      <c r="U36" s="148"/>
-      <c r="V36" s="148"/>
-      <c r="W36" s="148"/>
-      <c r="X36" s="148"/>
+      <c r="T36" s="147"/>
+      <c r="U36" s="147"/>
+      <c r="V36" s="147"/>
+      <c r="W36" s="147"/>
+      <c r="X36" s="147"/>
       <c r="Y36" s="105"/>
       <c r="Z36" s="105"/>
-      <c r="AA36" s="148"/>
-      <c r="AB36" s="148"/>
-      <c r="AC36" s="148"/>
-      <c r="AD36" s="148"/>
-      <c r="AE36" s="148"/>
+      <c r="AA36" s="147"/>
+      <c r="AB36" s="147"/>
+      <c r="AC36" s="147"/>
+      <c r="AD36" s="147"/>
+      <c r="AE36" s="147"/>
       <c r="AF36" s="105"/>
       <c r="AG36" s="105"/>
-      <c r="AH36" s="148"/>
-      <c r="AI36" s="148"/>
+      <c r="AH36" s="147"/>
+      <c r="AI36" s="147"/>
       <c r="AJ36" s="105"/>
-      <c r="AK36" s="148"/>
-      <c r="AL36" s="149"/>
+      <c r="AK36" s="147"/>
+      <c r="AL36" s="148"/>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
@@ -12487,10 +13197,10 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15319,12 +16029,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18104,12 +18814,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20938,12 +21648,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20957,7 +21667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21166,7 +21876,7 @@
       </c>
       <c r="G6" s="82">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>18.8</v>
+        <v>26.55</v>
       </c>
       <c r="H6" s="84">
         <f>Ene!G36</f>
@@ -21174,7 +21884,7 @@
       </c>
       <c r="I6" s="84">
         <f>Feb!G36</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J6" s="84">
         <f>Mar!G36</f>
@@ -21182,11 +21892,11 @@
       </c>
       <c r="K6" s="84">
         <f>Abr!G36</f>
-        <v>5.3</v>
+        <v>7.55</v>
       </c>
       <c r="L6" s="84">
         <f>May!G36</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="M6" s="84">
         <f>Jun!G36</f>
@@ -21723,12 +22433,12 @@
     <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21742,7 +22452,7 @@
   <dimension ref="A1:AZ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22143,14 +22853,24 @@
     </row>
     <row r="6" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="156">
+        <v>84</v>
+      </c>
+      <c r="C6" s="157">
+        <v>2</v>
+      </c>
+      <c r="D6" s="157">
+        <v>41</v>
+      </c>
+      <c r="E6" s="159">
+        <v>0</v>
+      </c>
+      <c r="F6" s="158" t="s">
+        <v>49</v>
+      </c>
       <c r="G6" s="11">
-        <f t="shared" ref="G6:G36" si="0">SUM(H6:AI6)</f>
-        <v>0</v>
+        <f t="shared" ref="G6:G7" si="0">SUM(H6:AI6)</f>
+        <v>1</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="17"/>
@@ -22167,10 +22887,12 @@
       <c r="T6" s="17"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
-      <c r="Z6" s="103"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="160">
+        <v>1</v>
+      </c>
       <c r="AA6" s="103"/>
       <c r="AB6" s="102"/>
       <c r="AC6" s="102"/>
@@ -22200,14 +22922,24 @@
     </row>
     <row r="7" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="106"/>
+      <c r="B7" s="156">
+        <v>84</v>
+      </c>
+      <c r="C7" s="157">
+        <v>2</v>
+      </c>
+      <c r="D7" s="157">
+        <v>41</v>
+      </c>
+      <c r="E7" s="159">
+        <v>0</v>
+      </c>
+      <c r="F7" s="158" t="s">
+        <v>50</v>
+      </c>
       <c r="G7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
@@ -22227,7 +22959,9 @@
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
+      <c r="Z7" s="160">
+        <v>2</v>
+      </c>
       <c r="AA7" s="17"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="16"/>
@@ -22263,7 +22997,7 @@
       <c r="E8" s="21"/>
       <c r="F8" s="22"/>
       <c r="G8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G6:G36" si="1">SUM(H8:AI8)</f>
         <v>0</v>
       </c>
       <c r="H8" s="16"/>
@@ -22320,7 +23054,7 @@
       <c r="E9" s="21"/>
       <c r="F9" s="22"/>
       <c r="G9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="16"/>
@@ -22377,7 +23111,7 @@
       <c r="E10" s="21"/>
       <c r="F10" s="22"/>
       <c r="G10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="16"/>
@@ -22434,7 +23168,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
       <c r="G11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="16"/>
@@ -22491,7 +23225,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
       <c r="G12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="16"/>
@@ -22548,7 +23282,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
       <c r="G13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H13" s="16"/>
@@ -22605,7 +23339,7 @@
       <c r="E14" s="21"/>
       <c r="F14" s="22"/>
       <c r="G14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14" s="16"/>
@@ -22662,7 +23396,7 @@
       <c r="E15" s="21"/>
       <c r="F15" s="22"/>
       <c r="G15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="16"/>
@@ -22719,7 +23453,7 @@
       <c r="E16" s="21"/>
       <c r="F16" s="22"/>
       <c r="G16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="16"/>
@@ -22776,7 +23510,7 @@
       <c r="E17" s="21"/>
       <c r="F17" s="22"/>
       <c r="G17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="16"/>
@@ -22833,7 +23567,7 @@
       <c r="E18" s="21"/>
       <c r="F18" s="22"/>
       <c r="G18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="16"/>
@@ -22890,7 +23624,7 @@
       <c r="E19" s="21"/>
       <c r="F19" s="22"/>
       <c r="G19" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19" s="16"/>
@@ -22947,7 +23681,7 @@
       <c r="E20" s="21"/>
       <c r="F20" s="22"/>
       <c r="G20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H20" s="16"/>
@@ -23004,7 +23738,7 @@
       <c r="E21" s="21"/>
       <c r="F21" s="22"/>
       <c r="G21" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H21" s="16"/>
@@ -23061,7 +23795,7 @@
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
       <c r="G22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H22" s="16"/>
@@ -23118,7 +23852,7 @@
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
       <c r="G23" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H23" s="16"/>
@@ -23175,7 +23909,7 @@
       <c r="E24" s="21"/>
       <c r="F24" s="22"/>
       <c r="G24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H24" s="16"/>
@@ -23232,7 +23966,7 @@
       <c r="E25" s="21"/>
       <c r="F25" s="22"/>
       <c r="G25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="16"/>
@@ -23289,7 +24023,7 @@
       <c r="E26" s="21"/>
       <c r="F26" s="22"/>
       <c r="G26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="16"/>
@@ -23346,7 +24080,7 @@
       <c r="E27" s="21"/>
       <c r="F27" s="22"/>
       <c r="G27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="16"/>
@@ -23403,7 +24137,7 @@
       <c r="E28" s="21"/>
       <c r="F28" s="22"/>
       <c r="G28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H28" s="16"/>
@@ -23460,7 +24194,7 @@
       <c r="E29" s="21"/>
       <c r="F29" s="22"/>
       <c r="G29" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H29" s="16"/>
@@ -23517,7 +24251,7 @@
       <c r="E30" s="21"/>
       <c r="F30" s="22"/>
       <c r="G30" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H30" s="16"/>
@@ -23574,7 +24308,7 @@
       <c r="E31" s="21"/>
       <c r="F31" s="22"/>
       <c r="G31" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H31" s="16"/>
@@ -23631,7 +24365,7 @@
       <c r="E32" s="21"/>
       <c r="F32" s="22"/>
       <c r="G32" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H32" s="16"/>
@@ -23688,7 +24422,7 @@
       <c r="E33" s="21"/>
       <c r="F33" s="22"/>
       <c r="G33" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H33" s="16"/>
@@ -23745,7 +24479,7 @@
       <c r="E34" s="21"/>
       <c r="F34" s="22"/>
       <c r="G34" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H34" s="16"/>
@@ -23802,7 +24536,7 @@
       <c r="E35" s="25"/>
       <c r="F35" s="26"/>
       <c r="G35" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H35" s="28"/>
@@ -23861,119 +24595,119 @@
         <v>8</v>
       </c>
       <c r="G36" s="33">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="H36" s="34">
-        <f t="shared" ref="H36:AI36" si="1">SUM(H3:H35)</f>
+        <f t="shared" ref="H36:AI36" si="2">SUM(H3:H35)</f>
         <v>0</v>
       </c>
       <c r="I36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N36" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O36" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U36" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V36" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AA36" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="34">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA36" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC36" s="34">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="AD36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH36" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI36" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ36" s="1"/>
@@ -24389,21 +25123,31 @@
   <mergeCells count="1">
     <mergeCell ref="AO1:AP1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6:G35">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="G8:G35">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G35">
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="G8:G35">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G7">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G7">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24419,7 +25163,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24699,38 +25443,38 @@
       <c r="BC3" s="1"/>
     </row>
     <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="143"/>
-      <c r="B4" s="117">
+      <c r="A4" s="142"/>
+      <c r="B4" s="116">
         <v>85</v>
       </c>
-      <c r="C4" s="118">
+      <c r="C4" s="117">
         <v>2</v>
       </c>
-      <c r="D4" s="118">
+      <c r="D4" s="117">
         <v>41</v>
       </c>
-      <c r="E4" s="119">
-        <v>0</v>
-      </c>
-      <c r="F4" s="151" t="s">
+      <c r="E4" s="118">
+        <v>0</v>
+      </c>
+      <c r="F4" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="152">
+      <c r="G4" s="151">
         <f t="shared" ref="G4:G5" si="0">SUM(H4:AL4)</f>
         <v>2.5</v>
       </c>
       <c r="H4" s="102"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
       <c r="L4" s="102"/>
       <c r="M4" s="102"/>
       <c r="N4" s="102"/>
       <c r="O4" s="102"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118">
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117">
         <v>2.5</v>
       </c>
       <c r="T4" s="20"/>
@@ -24771,38 +25515,38 @@
       <c r="BC4" s="1"/>
     </row>
     <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="143"/>
-      <c r="B5" s="117">
+      <c r="A5" s="142"/>
+      <c r="B5" s="116">
         <v>85</v>
       </c>
-      <c r="C5" s="118">
+      <c r="C5" s="117">
         <v>2</v>
       </c>
-      <c r="D5" s="118">
+      <c r="D5" s="117">
         <v>43</v>
       </c>
-      <c r="E5" s="119">
-        <v>0</v>
-      </c>
-      <c r="F5" s="151" t="s">
+      <c r="E5" s="118">
+        <v>0</v>
+      </c>
+      <c r="F5" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="152">
+      <c r="G5" s="151">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H5" s="102"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
       <c r="L5" s="102"/>
       <c r="M5" s="102"/>
       <c r="N5" s="102"/>
       <c r="O5" s="102"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118">
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117">
         <v>1.5</v>
       </c>
       <c r="T5" s="20"/>
@@ -24844,16 +25588,16 @@
     </row>
     <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="117">
+      <c r="B6" s="116">
         <v>85</v>
       </c>
-      <c r="C6" s="118">
+      <c r="C6" s="117">
         <v>2</v>
       </c>
       <c r="D6" s="20">
         <v>54</v>
       </c>
-      <c r="E6" s="119">
+      <c r="E6" s="118">
         <v>0</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -24916,16 +25660,16 @@
     </row>
     <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="117">
+      <c r="B7" s="116">
         <v>85</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7" s="117">
         <v>2</v>
       </c>
       <c r="D7" s="20">
         <v>54</v>
       </c>
-      <c r="E7" s="119">
+      <c r="E7" s="118">
         <v>0</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -24988,16 +25732,16 @@
     </row>
     <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="117">
+      <c r="B8" s="116">
         <v>85</v>
       </c>
-      <c r="C8" s="118">
+      <c r="C8" s="117">
         <v>2</v>
       </c>
       <c r="D8" s="20">
         <v>57</v>
       </c>
-      <c r="E8" s="119">
+      <c r="E8" s="118">
         <v>0</v>
       </c>
       <c r="F8" s="22" t="s">
@@ -25060,16 +25804,16 @@
     </row>
     <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="117">
+      <c r="B9" s="116">
         <v>85</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9" s="117">
         <v>2</v>
       </c>
       <c r="D9" s="20">
         <v>44</v>
       </c>
-      <c r="E9" s="119">
+      <c r="E9" s="118">
         <v>0</v>
       </c>
       <c r="F9" s="22" t="s">
@@ -25262,7 +26006,7 @@
       <c r="K12" s="20"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
-      <c r="N12" s="153"/>
+      <c r="N12" s="152"/>
       <c r="O12" s="16"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
@@ -27257,30 +28001,30 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G8 G10:G35">
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G8 G10:G35">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G9">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G9">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27296,7 +28040,7 @@
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27501,16 +28245,16 @@
     </row>
     <row r="3" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="117">
+      <c r="B3" s="116">
         <v>85</v>
       </c>
-      <c r="C3" s="118">
+      <c r="C3" s="117">
         <v>2</v>
       </c>
       <c r="D3" s="20">
         <v>57</v>
       </c>
-      <c r="E3" s="119">
+      <c r="E3" s="118">
         <v>0</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -27572,16 +28316,16 @@
     </row>
     <row r="4" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="117">
+      <c r="B4" s="116">
         <v>85</v>
       </c>
-      <c r="C4" s="118">
+      <c r="C4" s="117">
         <v>2</v>
       </c>
       <c r="D4" s="20">
         <v>44</v>
       </c>
-      <c r="E4" s="119">
+      <c r="E4" s="118">
         <v>0</v>
       </c>
       <c r="F4" s="22" t="s">
@@ -27643,16 +28387,16 @@
     </row>
     <row r="5" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="117">
+      <c r="B5" s="116">
         <v>85</v>
       </c>
-      <c r="C5" s="118">
+      <c r="C5" s="117">
         <v>2</v>
       </c>
       <c r="D5" s="20">
         <v>54</v>
       </c>
-      <c r="E5" s="119">
+      <c r="E5" s="118">
         <v>1</v>
       </c>
       <c r="F5" s="22" t="s">
@@ -27714,16 +28458,16 @@
     </row>
     <row r="6" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="117">
+      <c r="B6" s="116">
         <v>85</v>
       </c>
-      <c r="C6" s="118">
+      <c r="C6" s="117">
         <v>2</v>
       </c>
       <c r="D6" s="20">
         <v>54</v>
       </c>
-      <c r="E6" s="119">
+      <c r="E6" s="118">
         <v>0</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -27785,16 +28529,16 @@
     </row>
     <row r="7" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="117">
+      <c r="B7" s="116">
         <v>85</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7" s="117">
         <v>2</v>
       </c>
       <c r="D7" s="20">
         <v>57</v>
       </c>
-      <c r="E7" s="119">
+      <c r="E7" s="118">
         <v>0</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -27856,16 +28600,16 @@
     </row>
     <row r="8" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="117">
+      <c r="B8" s="116">
         <v>85</v>
       </c>
-      <c r="C8" s="118">
+      <c r="C8" s="117">
         <v>2</v>
       </c>
       <c r="D8" s="20">
         <v>44</v>
       </c>
-      <c r="E8" s="119">
+      <c r="E8" s="118">
         <v>0</v>
       </c>
       <c r="F8" s="22" t="s">
@@ -27927,16 +28671,16 @@
     </row>
     <row r="9" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="117">
+      <c r="B9" s="116">
         <v>85</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9" s="117">
         <v>2</v>
       </c>
       <c r="D9" s="20">
         <v>54</v>
       </c>
-      <c r="E9" s="119">
+      <c r="E9" s="118">
         <v>0</v>
       </c>
       <c r="F9" s="22" t="s">
@@ -27998,10 +28742,10 @@
     </row>
     <row r="10" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="117">
+      <c r="B10" s="116">
         <v>85</v>
       </c>
-      <c r="C10" s="118">
+      <c r="C10" s="117">
         <v>2</v>
       </c>
       <c r="D10" s="20">
@@ -28015,7 +28759,7 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -28043,7 +28787,7 @@
       <c r="AE10" s="16"/>
       <c r="AF10" s="16"/>
       <c r="AG10" s="16">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AH10" s="20"/>
       <c r="AI10" s="20"/>
@@ -28069,10 +28813,10 @@
     </row>
     <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="117">
+      <c r="B11" s="116">
         <v>85</v>
       </c>
-      <c r="C11" s="118">
+      <c r="C11" s="117">
         <v>2</v>
       </c>
       <c r="D11" s="20">
@@ -28140,14 +28884,22 @@
     </row>
     <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="156">
+        <v>84</v>
+      </c>
+      <c r="C12" s="157">
+        <v>2</v>
+      </c>
+      <c r="D12" s="157">
+        <v>44</v>
+      </c>
       <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="158" t="s">
+        <v>48</v>
+      </c>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -28163,7 +28915,9 @@
       <c r="S12" s="16"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
+      <c r="V12" s="157">
+        <v>2</v>
+      </c>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="16"/>
@@ -28379,7 +29133,7 @@
       <c r="B16" s="18"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="156"/>
+      <c r="E16" s="153"/>
       <c r="F16" s="22"/>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
@@ -29565,7 +30319,7 @@
       </c>
       <c r="G36" s="33">
         <f t="shared" si="0"/>
-        <v>5.3</v>
+        <v>7.55</v>
       </c>
       <c r="H36" s="34">
         <f t="shared" ref="H36:AK36" si="1">SUM(H3:H35)</f>
@@ -29625,7 +30379,7 @@
       </c>
       <c r="V36" s="51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="51">
         <f t="shared" si="1"/>
@@ -29669,7 +30423,7 @@
       </c>
       <c r="AG36" s="34">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AH36" s="51">
         <f t="shared" si="1"/>
@@ -30114,13 +30868,23 @@
   <mergeCells count="1">
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="G3:G11 G13:G35">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="G3:G11 G13:G35">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30135,7 +30899,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -30343,14 +31109,24 @@
     </row>
     <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="116">
+        <v>85</v>
+      </c>
+      <c r="C3" s="117">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20">
+        <v>44</v>
+      </c>
+      <c r="E3" s="118">
+        <v>0</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>46</v>
+      </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G36" si="0">SUM(H3:AL3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -30358,7 +31134,9 @@
       <c r="K3" s="39"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
+      <c r="N3" s="39">
+        <v>1</v>
+      </c>
       <c r="O3" s="39"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -30403,14 +31181,24 @@
     </row>
     <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="B4" s="116">
+        <v>85</v>
+      </c>
+      <c r="C4" s="117">
+        <v>2</v>
+      </c>
+      <c r="D4" s="20">
+        <v>44</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="G4" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -30419,7 +31207,9 @@
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="O4" s="20">
+        <v>0.5</v>
+      </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="20"/>
@@ -30463,14 +31253,24 @@
     </row>
     <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
+      <c r="B5" s="156">
+        <v>84</v>
+      </c>
+      <c r="C5" s="157">
+        <v>2</v>
+      </c>
+      <c r="D5" s="157">
+        <v>42</v>
+      </c>
+      <c r="E5" s="159">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="G5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
@@ -30479,7 +31279,9 @@
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
+      <c r="O5" s="20">
+        <v>1</v>
+      </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="20"/>
@@ -32332,7 +33134,7 @@
       </c>
       <c r="G36" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H36" s="34">
         <f t="shared" ref="H36:AL36" si="1">SUM(H3:H35)</f>
@@ -32360,11 +33162,11 @@
       </c>
       <c r="N36" s="51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P36" s="34">
         <f t="shared" si="1"/>
@@ -32893,12 +33695,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32912,7 +33714,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -35622,12 +36426,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38400,12 +39204,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41177,12 +41981,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43906,12 +44710,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inigo\Desktop\ecatalog\team\efforts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ene" sheetId="1" r:id="rId1"/>
@@ -40,7 +35,7 @@
     <definedName name="Print_Area" localSheetId="9">Oct!$A$1:$AS$37</definedName>
     <definedName name="Print_Area" localSheetId="8">Sep!$A$1:$AR$37</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -50,7 +45,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AR2" authorId="0" shapeId="0">
+    <comment ref="AR2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +68,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AR2" authorId="0" shapeId="0">
+    <comment ref="AR2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +91,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AQ2" authorId="0" shapeId="0">
+    <comment ref="AQ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +114,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AR2" authorId="0" shapeId="0">
+    <comment ref="AR2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +137,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AO2" authorId="0" shapeId="0">
+    <comment ref="AO2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +160,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AR2" authorId="0" shapeId="0">
+    <comment ref="AR2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +183,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AQ2" authorId="0" shapeId="0">
+    <comment ref="AQ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +206,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AR2" authorId="0" shapeId="0">
+    <comment ref="AR2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +229,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AQ2" authorId="0" shapeId="0">
+    <comment ref="AQ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +252,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AR2" authorId="0" shapeId="0">
+    <comment ref="AR2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +275,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AR2" authorId="0" shapeId="0">
+    <comment ref="AR2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -303,7 +298,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AQ2" authorId="0" shapeId="0">
+    <comment ref="AQ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -461,9 +456,6 @@
     <t>Segunda iteración. Destacar modelo</t>
   </si>
   <si>
-    <t>reunion</t>
-  </si>
-  <si>
     <t>Edición de auditoría</t>
   </si>
   <si>
@@ -477,6 +469,9 @@
   </si>
   <si>
     <t>Gestión de proyecto</t>
+  </si>
+  <si>
+    <t>Reunion con el profesor: auditoria externa</t>
   </si>
 </sst>
 </file>
@@ -1853,110 +1848,26 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="36">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFCCFFFF"/>
           <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
         </patternFill>
       </fill>
       <border>
@@ -2347,6 +2258,34 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor indexed="41"/>
           <bgColor indexed="27"/>
         </patternFill>
@@ -2468,7 +2407,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2605,12 +2543,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="319189120"/>
-        <c:axId val="319189512"/>
+        <c:axId val="177764224"/>
+        <c:axId val="177778688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="319189120"/>
+        <c:axId val="177764224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2636,7 +2575,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="cross"/>
@@ -2652,7 +2590,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319189512"/>
+        <c:crossAx val="177778688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2660,7 +2598,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319189512"/>
+        <c:axId val="177778688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2695,7 +2633,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2717,7 +2654,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319189120"/>
+        <c:crossAx val="177764224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2729,7 +2666,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3338,6 +3274,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10610850" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3994,6 +3978,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4618,6 +4650,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5210,6 +5290,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5891,6 +6019,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6483,6 +6659,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7139,6 +7363,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7731,6 +8003,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8387,6 +8707,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8979,6 +9347,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9635,6 +10051,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10259,6 +10723,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10305,7 +10817,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10340,7 +10852,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10517,7 +11029,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10588,8 +11100,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="154"/>
-      <c r="AS1" s="155"/>
+      <c r="AR1" s="159"/>
+      <c r="AS1" s="160"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -13197,10 +13709,10 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13272,8 +13784,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="154"/>
-      <c r="AS1" s="155"/>
+      <c r="AR1" s="159"/>
+      <c r="AS1" s="160"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -16029,12 +16541,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16105,8 +16617,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="154"/>
-      <c r="AR1" s="155"/>
+      <c r="AQ1" s="159"/>
+      <c r="AR1" s="160"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -18814,12 +19326,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18891,8 +19403,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="154"/>
-      <c r="AS1" s="155"/>
+      <c r="AR1" s="159"/>
+      <c r="AS1" s="160"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -21648,12 +22160,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22433,12 +22945,12 @@
     <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22452,7 +22964,7 @@
   <dimension ref="A1:AZ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22508,8 +23020,8 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
-      <c r="AO1" s="154"/>
-      <c r="AP1" s="155"/>
+      <c r="AO1" s="159"/>
+      <c r="AP1" s="160"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
@@ -22853,20 +23365,20 @@
     </row>
     <row r="6" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="156">
+      <c r="B6" s="154">
         <v>84</v>
       </c>
-      <c r="C6" s="157">
+      <c r="C6" s="155">
         <v>2</v>
       </c>
-      <c r="D6" s="157">
+      <c r="D6" s="155">
         <v>41</v>
       </c>
-      <c r="E6" s="159">
-        <v>0</v>
-      </c>
-      <c r="F6" s="158" t="s">
-        <v>49</v>
+      <c r="E6" s="157">
+        <v>0</v>
+      </c>
+      <c r="F6" s="156" t="s">
+        <v>48</v>
       </c>
       <c r="G6" s="11">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:AI6)</f>
@@ -22890,7 +23402,7 @@
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
-      <c r="Z6" s="160">
+      <c r="Z6" s="158">
         <v>1</v>
       </c>
       <c r="AA6" s="103"/>
@@ -22922,20 +23434,20 @@
     </row>
     <row r="7" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="156">
+      <c r="B7" s="154">
         <v>84</v>
       </c>
-      <c r="C7" s="157">
+      <c r="C7" s="155">
         <v>2</v>
       </c>
-      <c r="D7" s="157">
+      <c r="D7" s="155">
         <v>41</v>
       </c>
-      <c r="E7" s="159">
-        <v>0</v>
-      </c>
-      <c r="F7" s="158" t="s">
-        <v>50</v>
+      <c r="E7" s="157">
+        <v>0</v>
+      </c>
+      <c r="F7" s="156" t="s">
+        <v>49</v>
       </c>
       <c r="G7" s="11">
         <f t="shared" si="0"/>
@@ -22959,7 +23471,7 @@
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
-      <c r="Z7" s="160">
+      <c r="Z7" s="158">
         <v>2</v>
       </c>
       <c r="AA7" s="17"/>
@@ -22997,7 +23509,7 @@
       <c r="E8" s="21"/>
       <c r="F8" s="22"/>
       <c r="G8" s="11">
-        <f t="shared" ref="G6:G36" si="1">SUM(H8:AI8)</f>
+        <f t="shared" ref="G8:G36" si="1">SUM(H8:AI8)</f>
         <v>0</v>
       </c>
       <c r="H8" s="16"/>
@@ -25124,30 +25636,30 @@
     <mergeCell ref="AO1:AP1"/>
   </mergeCells>
   <conditionalFormatting sqref="G8:G35">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G35">
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25163,7 +25675,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B3" sqref="B3:AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25222,8 +25734,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="154"/>
-      <c r="AS1" s="155"/>
+      <c r="AR1" s="159"/>
+      <c r="AS1" s="160"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -28001,30 +28513,30 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G8 G10:G35">
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G8 G10:G35">
-    <cfRule type="cellIs" dxfId="32" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G9">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G9">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28040,7 +28552,7 @@
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B3" sqref="B3:AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28098,8 +28610,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="154"/>
-      <c r="AR1" s="155"/>
+      <c r="AQ1" s="159"/>
+      <c r="AR1" s="160"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -28884,18 +29396,18 @@
     </row>
     <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="156">
+      <c r="B12" s="154">
         <v>84</v>
       </c>
-      <c r="C12" s="157">
+      <c r="C12" s="155">
         <v>2</v>
       </c>
-      <c r="D12" s="157">
+      <c r="D12" s="155">
         <v>44</v>
       </c>
       <c r="E12" s="21"/>
-      <c r="F12" s="158" t="s">
-        <v>48</v>
+      <c r="F12" s="156" t="s">
+        <v>47</v>
       </c>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
@@ -28915,7 +29427,7 @@
       <c r="S12" s="16"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="157">
+      <c r="V12" s="155">
         <v>2</v>
       </c>
       <c r="W12" s="20"/>
@@ -30869,22 +31381,22 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G11 G13:G35">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G11 G13:G35">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30900,7 +31412,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30959,8 +31471,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="154"/>
-      <c r="AS1" s="155"/>
+      <c r="AR1" s="159"/>
+      <c r="AS1" s="160"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -31110,7 +31622,7 @@
     <row r="3" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="116">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="117">
         <v>2</v>
@@ -31122,7 +31634,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G36" si="0">SUM(H3:AL3)</f>
@@ -31182,7 +31694,7 @@
     <row r="4" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="116">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="117">
         <v>2</v>
@@ -31194,7 +31706,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="11">
         <f t="shared" si="0"/>
@@ -31253,20 +31765,20 @@
     </row>
     <row r="5" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="156">
+      <c r="B5" s="154">
         <v>84</v>
       </c>
-      <c r="C5" s="157">
+      <c r="C5" s="155">
         <v>2</v>
       </c>
-      <c r="D5" s="157">
+      <c r="D5" s="155">
         <v>42</v>
       </c>
-      <c r="E5" s="159">
+      <c r="E5" s="157">
         <v>0</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="11">
         <f t="shared" si="0"/>
@@ -33695,12 +34207,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33773,8 +34285,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="154"/>
-      <c r="AR1" s="155"/>
+      <c r="AQ1" s="159"/>
+      <c r="AR1" s="160"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -36426,12 +36938,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36504,8 +37016,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="154"/>
-      <c r="AS1" s="155"/>
+      <c r="AR1" s="159"/>
+      <c r="AS1" s="160"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -39204,12 +39716,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39281,8 +39793,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="154"/>
-      <c r="AS1" s="155"/>
+      <c r="AR1" s="159"/>
+      <c r="AS1" s="160"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -41981,12 +42493,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42057,8 +42569,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="154"/>
-      <c r="AR1" s="155"/>
+      <c r="AQ1" s="159"/>
+      <c r="AR1" s="160"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -44710,12 +45222,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inigo\Desktop\ecatalog\team\efforts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
@@ -35,7 +40,7 @@
     <definedName name="Print_Area" localSheetId="9">Oct!$A$1:$AS$37</definedName>
     <definedName name="Print_Area" localSheetId="8">Sep!$A$1:$AR$37</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -45,7 +50,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AR2" authorId="0">
+    <comment ref="AR2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +73,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AR2" authorId="0">
+    <comment ref="AR2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +96,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AQ2" authorId="0">
+    <comment ref="AQ2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +119,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AR2" authorId="0">
+    <comment ref="AR2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +142,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AO2" authorId="0">
+    <comment ref="AO2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +165,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AR2" authorId="0">
+    <comment ref="AR2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +188,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AQ2" authorId="0">
+    <comment ref="AQ2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -206,7 +211,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AR2" authorId="0">
+    <comment ref="AR2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +234,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AQ2" authorId="0">
+    <comment ref="AQ2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +257,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AR2" authorId="0">
+    <comment ref="AR2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -275,7 +280,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AR2" authorId="0">
+    <comment ref="AR2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +303,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="AQ2" authorId="0">
+    <comment ref="AQ2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="52">
   <si>
     <t>GP</t>
   </si>
@@ -2447,7 +2452,7 @@
                   <c:v>7.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2543,13 +2548,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="177764224"/>
-        <c:axId val="177778688"/>
+        <c:axId val="306789840"/>
+        <c:axId val="307253536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177764224"/>
+        <c:axId val="306789840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,7 +2594,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177778688"/>
+        <c:crossAx val="307253536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2598,7 +2602,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177778688"/>
+        <c:axId val="307253536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,7 +2658,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177764224"/>
+        <c:crossAx val="306789840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3322,6 +3326,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10610850" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4026,6 +4078,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4698,6 +4798,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5338,6 +5486,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6067,6 +6263,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6707,6 +6951,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7411,6 +7703,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8051,6 +8391,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8755,6 +9143,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9395,6 +9831,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -10099,6 +10583,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10771,6 +11303,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11029,7 +11609,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -22388,7 +22968,7 @@
       </c>
       <c r="G6" s="82">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>26.55</v>
+        <v>28.55</v>
       </c>
       <c r="H6" s="84">
         <f>Ene!G36</f>
@@ -22408,7 +22988,7 @@
       </c>
       <c r="L6" s="84">
         <f>May!G36</f>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M6" s="84">
         <f>Jun!G36</f>
@@ -28552,7 +29132,7 @@
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:AK12"/>
+      <selection activeCell="F11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31412,7 +31992,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31837,14 +32417,24 @@
     </row>
     <row r="6" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="116">
+        <v>85</v>
+      </c>
+      <c r="C6" s="117">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20">
+        <v>55</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G6" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
@@ -31854,7 +32444,9 @@
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
-      <c r="P6" s="16"/>
+      <c r="P6" s="16">
+        <v>2</v>
+      </c>
       <c r="Q6" s="16"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
@@ -33646,7 +34238,7 @@
       </c>
       <c r="G36" s="33">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H36" s="34">
         <f t="shared" ref="H36:AL36" si="1">SUM(H3:H35)</f>
@@ -33682,7 +34274,7 @@
       </c>
       <c r="P36" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q36" s="34">
         <f t="shared" si="1"/>

--- a/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="56">
   <si>
     <t>GP</t>
   </si>
@@ -477,6 +477,18 @@
   </si>
   <si>
     <t>Reunion con el profesor: auditoria externa</t>
+  </si>
+  <si>
+    <t>Presentación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunión </t>
+  </si>
+  <si>
+    <t>Preparar reunión / Presentación</t>
+  </si>
+  <si>
+    <t>Auditoría terminar</t>
   </si>
 </sst>
 </file>
@@ -2452,7 +2464,7 @@
                   <c:v>7.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2549,11 +2561,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="306789840"/>
-        <c:axId val="307253536"/>
+        <c:axId val="304041120"/>
+        <c:axId val="231855392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="306789840"/>
+        <c:axId val="304041120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,7 +2606,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307253536"/>
+        <c:crossAx val="231855392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2602,7 +2614,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307253536"/>
+        <c:axId val="231855392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2658,7 +2670,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306789840"/>
+        <c:crossAx val="304041120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3374,6 +3386,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10610850" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4126,6 +4186,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4846,6 +4954,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5534,6 +5690,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6311,6 +6515,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6999,6 +7251,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7751,6 +8051,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8439,6 +8787,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9191,6 +9587,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9879,6 +10323,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -10631,6 +11123,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11351,6 +11891,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22968,7 +23556,7 @@
       </c>
       <c r="G6" s="82">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>28.55</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="H6" s="84">
         <f>Ene!G36</f>
@@ -22988,7 +23576,7 @@
       </c>
       <c r="L6" s="84">
         <f>May!G36</f>
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="M6" s="84">
         <f>Jun!G36</f>
@@ -31992,7 +32580,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32489,14 +33077,24 @@
     </row>
     <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="116">
+        <v>85</v>
+      </c>
+      <c r="C7" s="117">
+        <v>2</v>
+      </c>
+      <c r="D7" s="20">
+        <v>57</v>
+      </c>
+      <c r="E7" s="157">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="G7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
@@ -32512,7 +33110,9 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
+      <c r="V7" s="20">
+        <v>3</v>
+      </c>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
       <c r="Y7" s="20"/>
@@ -32549,14 +33149,24 @@
     </row>
     <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
+      <c r="B8" s="154">
+        <v>84</v>
+      </c>
+      <c r="C8" s="117">
+        <v>2</v>
+      </c>
+      <c r="D8" s="20">
+        <v>44</v>
+      </c>
+      <c r="E8" s="157">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -32571,7 +33181,9 @@
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
+      <c r="U8" s="20">
+        <v>1</v>
+      </c>
       <c r="V8" s="20"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
@@ -32609,14 +33221,22 @@
     </row>
     <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="154">
+        <v>84</v>
+      </c>
+      <c r="C9" s="117">
+        <v>2</v>
+      </c>
       <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="157">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -32632,7 +33252,9 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
+      <c r="V9" s="20">
+        <v>0.5</v>
+      </c>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="20"/>
@@ -32669,14 +33291,24 @@
     </row>
     <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+      <c r="B10" s="116">
+        <v>84</v>
+      </c>
+      <c r="C10" s="117">
+        <v>2</v>
+      </c>
+      <c r="D10" s="20">
+        <v>44</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -32694,7 +33326,9 @@
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
       <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
+      <c r="X10" s="16">
+        <v>1</v>
+      </c>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
@@ -34238,7 +34872,7 @@
       </c>
       <c r="G36" s="33">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="H36" s="34">
         <f t="shared" ref="H36:AL36" si="1">SUM(H3:H35)</f>
@@ -34294,11 +34928,11 @@
       </c>
       <c r="U36" s="51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" s="51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W36" s="34">
         <f t="shared" si="1"/>
@@ -34306,7 +34940,7 @@
       </c>
       <c r="X36" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="51">
         <f t="shared" si="1"/>

--- a/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Iñigo.xlsx
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="57">
   <si>
     <t>GP</t>
   </si>
@@ -489,6 +489,9 @@
   </si>
   <si>
     <t>Auditoría terminar</t>
+  </si>
+  <si>
+    <t>Documentación</t>
   </si>
 </sst>
 </file>
@@ -1879,7 +1882,63 @@
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2464,7 +2523,7 @@
                   <c:v>7.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2561,11 +2620,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="304041120"/>
-        <c:axId val="231855392"/>
+        <c:axId val="301006136"/>
+        <c:axId val="226414008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="304041120"/>
+        <c:axId val="301006136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2606,7 +2665,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231855392"/>
+        <c:crossAx val="226414008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2614,7 +2673,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231855392"/>
+        <c:axId val="226414008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2670,7 +2729,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304041120"/>
+        <c:crossAx val="301006136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3434,6 +3493,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10610850" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4234,6 +4341,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5002,6 +5157,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5738,6 +5941,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6563,6 +6814,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7299,6 +7598,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8099,6 +8446,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8835,6 +9230,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9635,6 +10078,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10371,6 +10862,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -11171,6 +11710,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11939,6 +12526,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14877,10 +15512,10 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17709,12 +18344,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20494,12 +21129,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23328,12 +23963,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23556,7 +24191,7 @@
       </c>
       <c r="G6" s="82">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>34.049999999999997</v>
+        <v>41.05</v>
       </c>
       <c r="H6" s="84">
         <f>Ene!G36</f>
@@ -23576,7 +24211,7 @@
       </c>
       <c r="L6" s="84">
         <f>May!G36</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M6" s="84">
         <f>Jun!G36</f>
@@ -24113,12 +24748,12 @@
     <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26804,30 +27439,30 @@
     <mergeCell ref="AO1:AP1"/>
   </mergeCells>
   <conditionalFormatting sqref="G8:G35">
-    <cfRule type="cellIs" dxfId="33" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G35">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29681,30 +30316,30 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G8 G10:G35">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G8 G10:G35">
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G9">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G9">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29720,7 +30355,7 @@
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="B11:F11"/>
+      <selection activeCell="F12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32549,22 +33184,22 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G11 G13:G35">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G11 G13:G35">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32580,7 +33215,7 @@
   <dimension ref="A1:BC43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33227,7 +33862,9 @@
       <c r="C9" s="117">
         <v>2</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="20">
+        <v>58</v>
+      </c>
       <c r="E9" s="157">
         <v>0</v>
       </c>
@@ -33363,14 +34000,24 @@
     </row>
     <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="154">
+        <v>84</v>
+      </c>
+      <c r="C11" s="117">
+        <v>2</v>
+      </c>
+      <c r="D11" s="20">
+        <v>44</v>
+      </c>
+      <c r="E11" s="157">
+        <v>0</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="G11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(H11:AL11)</f>
+        <v>1</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -33382,7 +34029,9 @@
       <c r="O11" s="20"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="20"/>
+      <c r="R11" s="20">
+        <v>1</v>
+      </c>
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
@@ -33423,14 +34072,22 @@
     </row>
     <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="154">
+        <v>84</v>
+      </c>
+      <c r="C12" s="155">
+        <v>2</v>
+      </c>
+      <c r="D12" s="155">
+        <v>44</v>
+      </c>
       <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="156" t="s">
+        <v>47</v>
+      </c>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -33444,7 +34101,9 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
+      <c r="T12" s="20">
+        <v>2</v>
+      </c>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="16"/>
@@ -33483,14 +34142,24 @@
     </row>
     <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
+      <c r="B13" s="154">
+        <v>84</v>
+      </c>
+      <c r="C13" s="117">
+        <v>2</v>
+      </c>
+      <c r="D13" s="20">
+        <v>58</v>
+      </c>
+      <c r="E13" s="157">
+        <v>0</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -33500,7 +34169,9 @@
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
-      <c r="P13" s="16"/>
+      <c r="P13" s="16">
+        <v>2</v>
+      </c>
       <c r="Q13" s="16"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
@@ -33543,14 +34214,22 @@
     </row>
     <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="B14" s="18">
+        <v>84</v>
+      </c>
+      <c r="C14" s="20">
+        <v>2</v>
+      </c>
+      <c r="D14" s="20">
+        <v>57</v>
+      </c>
       <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -33571,7 +34250,9 @@
       <c r="X14" s="16"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
+      <c r="AA14" s="20">
+        <v>1</v>
+      </c>
       <c r="AB14" s="20"/>
       <c r="AC14" s="20"/>
       <c r="AD14" s="16"/>
@@ -33603,14 +34284,22 @@
     </row>
     <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="B15" s="18">
+        <v>84</v>
+      </c>
+      <c r="C15" s="20">
+        <v>2</v>
+      </c>
+      <c r="D15" s="20">
+        <v>57</v>
+      </c>
       <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="G15" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="G15" si="1">SUM(H15:AL15)</f>
+        <v>1</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -33633,7 +34322,9 @@
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
+      <c r="AC15" s="20">
+        <v>1</v>
+      </c>
       <c r="AD15" s="16"/>
       <c r="AE15" s="16"/>
       <c r="AF15" s="20"/>
@@ -34872,130 +35563,130 @@
       </c>
       <c r="G36" s="33">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H36" s="34">
-        <f t="shared" ref="H36:AL36" si="1">SUM(H3:H35)</f>
+        <f t="shared" ref="H36:AL36" si="2">SUM(H3:H35)</f>
         <v>0</v>
       </c>
       <c r="I36" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J36" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K36" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L36" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M36" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N36" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O36" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="P36" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q36" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S36" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="51">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q36" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="U36" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V36" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="W36" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X36" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y36" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z36" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA36" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AB36" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC36" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AD36" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE36" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF36" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG36" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH36" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI36" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ36" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK36" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL36" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM36" s="1"/>
@@ -35432,13 +36123,23 @@
   <mergeCells count="1">
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="G3:G14 G16:G35">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="G3:G14 G16:G35">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38164,12 +38865,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40942,12 +41643,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43719,12 +44420,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46448,12 +47149,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
